--- a/sheet/cards_story.xlsx
+++ b/sheet/cards_story.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1065">
   <si>
     <t>メガミID</t>
   </si>
@@ -13395,6 +13395,292 @@
   </si>
   <si>
     <t>ふくいん</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>コルヌ</t>
+  </si>
+  <si>
+    <t>korunu-original</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>korunu</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>korunu-original</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>15-korunu-o-n-a</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>15-korunu-o-s-a</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>コルヌコラムヌカラ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>15-korunu-o-n-b</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>永劫凍土</t>
+    <rPh sb="0" eb="2">
+      <t>エイゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウド</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>えいごうとうど</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>15-korunu-o-n-y</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>霧氷</t>
+    <rPh sb="0" eb="1">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>コオリ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>むひょう</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1/-</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>4-9</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>【展開時】相手は畏縮する。
+【展開中】相手のターン中、相手のオーラの上限は1減少する。
+（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）</t>
+    <rPh sb="1" eb="3">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イシュク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウケツ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>【展開時】相手は畏縮する。
+【展開中】相手のターン中、相手のオーラの上限は2減少する。
+（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）</t>
+    <rPh sb="1" eb="3">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イシュク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウケツ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>【攻撃後】対応した《攻撃》と、このターンに相手が次に行う《攻撃》は-1/+0となる。</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>現在のフェイズを終了する。（対応した《攻撃》は消える）
+【使用済】相手の終了フェイズに相手のオーラに空きがなければ、相手のオーラに1ダメージを与え、相手は1回凍結する。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウケツ</t>
+    </rPh>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -13419,7 +13705,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -13522,7 +13807,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -14048,13 +14332,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF975"/>
+  <dimension ref="A1:AF974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15236,25 +15520,56 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
     </row>
-    <row r="21" spans="1:32" ht="12" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>716</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>713</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>1047</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="4" t="str">
+        <f t="shared" ref="R21" si="9">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': { name: '"&amp;B21&amp;"', nameZh: '"&amp;C21&amp;"', nameZhG1: '"&amp;D21&amp;"', nameKo: '"&amp;E21&amp;"', nameEn: '"&amp;F21&amp;"', symbol: '"&amp;G21&amp;"', symbolZh: '"&amp;H21&amp;"', symbolZhG1: '"&amp;I21&amp;"', symbolKo: '"&amp;J21&amp;"', symbolEn: '"&amp;K21&amp;"'"&amp;IF(N21&lt;&gt;"",", base: '"&amp;M21&amp;"', anotherID: '"&amp;N21&amp;"'","")&amp;IF(O21="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P21="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q21="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L21 &amp; "'}"</f>
+        <v>, 'korunu-original': { name: 'コルヌ', nameZh: '凝努', nameZhG1: '凝努', nameKo: '코르누', nameEn: 'Korunu', symbol: '橇', symbolZh: '橇', symbolZhG1: '橇', symbolKo: '썰매', symbolEn: 'Skate blade', base: 'korunu', anotherID: 'C7', tarotNo: '15'}</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -15267,6 +15582,8 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" ht="12" customHeight="1">
       <c r="A22" s="1"/>
@@ -15311,7 +15628,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="2"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -15503,7 +15820,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="6"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -15535,7 +15852,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="2"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -15599,7 +15916,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="2"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -15631,7 +15948,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="2"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -15940,7 +16257,7 @@
       <c r="AC42" s="3"/>
       <c r="AD42" s="3"/>
     </row>
-    <row r="43" spans="1:30" ht="12" customHeight="1">
+    <row r="43" spans="1:30" ht="25.5" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -15972,7 +16289,7 @@
       <c r="AC43" s="3"/>
       <c r="AD43" s="3"/>
     </row>
-    <row r="44" spans="1:30" ht="25.5" customHeight="1">
+    <row r="44" spans="1:30" ht="12" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -17967,7 +18284,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="2"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="6"/>
+      <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
@@ -18244,7 +18561,7 @@
       <c r="AC114" s="3"/>
       <c r="AD114" s="3"/>
     </row>
-    <row r="115" spans="1:30" ht="12" customHeight="1">
+    <row r="115" spans="1:30" ht="13.5" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -18276,7 +18593,7 @@
       <c r="AC115" s="3"/>
       <c r="AD115" s="3"/>
     </row>
-    <row r="116" spans="1:30" ht="13.5" customHeight="1">
+    <row r="116" spans="1:30" ht="12" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -18383,7 +18700,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="2"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
+      <c r="K119" s="6"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -19183,7 +19500,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="2"/>
       <c r="J144" s="1"/>
-      <c r="K144" s="6"/>
+      <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -19222,7 +19539,9 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145" s="3"/>
+      <c r="R145" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
       <c r="U145" s="3"/>
@@ -19356,9 +19675,7 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="R149" s="3"/>
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
       <c r="U149" s="3"/>
@@ -19411,7 +19728,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="G151" s="3"/>
       <c r="H151" s="1"/>
       <c r="I151" s="2"/>
       <c r="J151" s="1"/>
@@ -19731,7 +20048,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="3"/>
+      <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="2"/>
       <c r="J161" s="1"/>
@@ -25740,37 +26057,10 @@
       <c r="AC348" s="3"/>
       <c r="AD348" s="3"/>
     </row>
-    <row r="349" spans="1:30" ht="12" customHeight="1">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
-      <c r="D349" s="1"/>
-      <c r="E349" s="1"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="1"/>
-      <c r="H349" s="1"/>
+    <row r="349" spans="1:30" ht="15.75" customHeight="1">
+      <c r="D349" s="6"/>
       <c r="I349" s="2"/>
-      <c r="J349" s="1"/>
-      <c r="K349" s="1"/>
-      <c r="L349" s="1"/>
-      <c r="M349" s="1"/>
-      <c r="N349" s="1"/>
-      <c r="O349" s="1"/>
-      <c r="P349" s="1"/>
-      <c r="Q349" s="1"/>
-      <c r="R349" s="3"/>
-      <c r="S349" s="3"/>
-      <c r="T349" s="3"/>
-      <c r="U349" s="3"/>
-      <c r="V349" s="3"/>
-      <c r="W349" s="3"/>
-      <c r="X349" s="3"/>
-      <c r="Y349" s="3"/>
-      <c r="Z349" s="3"/>
-      <c r="AA349" s="3"/>
-      <c r="AB349" s="3"/>
-      <c r="AC349" s="3"/>
-      <c r="AD349" s="3"/>
+      <c r="P349" s="6"/>
     </row>
     <row r="350" spans="1:30" ht="15.75" customHeight="1">
       <c r="D350" s="6"/>
@@ -28896,11 +29186,6 @@
       <c r="D974" s="6"/>
       <c r="I974" s="2"/>
       <c r="P974" s="6"/>
-    </row>
-    <row r="975" spans="4:16" ht="15.75" customHeight="1">
-      <c r="D975" s="6"/>
-      <c r="I975" s="2"/>
-      <c r="P975" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
@@ -28914,7 +29199,7 @@
   <dimension ref="A1:AQ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
@@ -30932,10 +31217,10 @@
   <dimension ref="A1:AML62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -33957,221 +34242,331 @@
       <c r="AY26" s="14"/>
       <c r="AZ26" s="14"/>
     </row>
-    <row r="27" spans="1:52">
-      <c r="A27" s="9"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="9"/>
+    <row r="27" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A27" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="24" t="s">
+        <v>1058</v>
+      </c>
       <c r="X27" s="63"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="12"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="11"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC27" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="46"/>
       <c r="AK27" s="11"/>
       <c r="AL27" s="11"/>
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
       <c r="AO27" s="8" t="str">
-        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(#REF!="○",", poison: true","")&amp;IF(Q27&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R27&lt;&gt;"",", subType: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S27&lt;&gt;"",", range: '"&amp;S27&amp;"'","")&amp;IF(U27&lt;&gt;"",", damage: '"&amp;U27&amp;"'","")&amp;IF(W27&lt;&gt;"",", capacity: '"&amp;W27&amp;"'","")&amp;IF(Y27&lt;&gt;"",", cost: '"&amp;Y27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z27="○",", sealable: true","")&amp;IF(AA27="○",", removable: true","")&amp;IF(AB27="○",", original: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R27&lt;&gt;"",", subType: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S27&lt;&gt;"",", range: '"&amp;S27&amp;"'","")&amp;IF(U27&lt;&gt;"",", damage: '"&amp;U27&amp;"'","")&amp;IF(W27&lt;&gt;"",", capacity: '"&amp;W27&amp;"'","")&amp;IF(X27&lt;&gt;"",", growth: "&amp;X27&amp;"","")&amp;IF(Y27&lt;&gt;"",", cost: '"&amp;Y27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z27="○",", sealable: true","")&amp;IF(AA27="○",", removable: true","")&amp;IF(AB27="○",", original: true","")&amp;"}")</f>
+        <v>, '15-korunu-o-n-a': {megami: 'korunu-original', name: '永久凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいきゅうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は1減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP27" s="38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    /** 《永久凍土》 */ export const KORUNU_O_N_A: TCardId = '15-korunu-o-n-a';</v>
       </c>
       <c r="AQ27" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:52">
-      <c r="A28" s="9"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="9"/>
+        <v xml:space="preserve">    | '15-korunu-o-n-a'</v>
+      </c>
+      <c r="AR27" s="14"/>
+      <c r="AS27" s="14"/>
+      <c r="AT27" s="14"/>
+      <c r="AU27" s="14"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="14"/>
+      <c r="AX27" s="14"/>
+      <c r="AY27" s="14"/>
+      <c r="AZ27" s="14"/>
+    </row>
+    <row r="28" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A28" s="24" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="24" t="s">
+        <v>183</v>
+      </c>
       <c r="X28" s="63"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="11"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC28" s="28" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="46"/>
       <c r="AK28" s="11"/>
       <c r="AL28" s="11"/>
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="8" t="str">
-        <f>IF(A28="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(#REF!="○",", poison: true","")&amp;IF(Q28&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R28&lt;&gt;"",", subType: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S28&lt;&gt;"",", range: '"&amp;S28&amp;"'","")&amp;IF(U28&lt;&gt;"",", damage: '"&amp;U28&amp;"'","")&amp;IF(W28&lt;&gt;"",", capacity: '"&amp;W28&amp;"'","")&amp;IF(Y28&lt;&gt;"",", cost: '"&amp;Y28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z28="○",", sealable: true","")&amp;IF(AA28="○",", removable: true","")&amp;IF(AB28="○",", original: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A28="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R28&lt;&gt;"",", subType: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S28&lt;&gt;"",", range: '"&amp;S28&amp;"'","")&amp;IF(U28&lt;&gt;"",", damage: '"&amp;U28&amp;"'","")&amp;IF(W28&lt;&gt;"",", capacity: '"&amp;W28&amp;"'","")&amp;IF(X28&lt;&gt;"",", growth: "&amp;X28&amp;"","")&amp;IF(Y28&lt;&gt;"",", cost: '"&amp;Y28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z28="○",", sealable: true","")&amp;IF(AA28="○",", removable: true","")&amp;IF(AB28="○",", original: true","")&amp;"}")</f>
+        <v>, '15-korunu-o-n-b': {megami: 'korunu-original', name: '永劫凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいごうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は2減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP28" s="38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    /** 《永劫凍土》 */ export const KORUNU_O_N_B: TCardId = '15-korunu-o-n-b';</v>
       </c>
       <c r="AQ28" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:52">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="9"/>
+        <v xml:space="preserve">    | '15-korunu-o-n-b'</v>
+      </c>
+      <c r="AR28" s="14"/>
+      <c r="AS28" s="14"/>
+      <c r="AT28" s="14"/>
+      <c r="AU28" s="14"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="14"/>
+      <c r="AX28" s="14"/>
+      <c r="AY28" s="14"/>
+      <c r="AZ28" s="14"/>
+    </row>
+    <row r="29" spans="1:52" s="33" customFormat="1">
+      <c r="A29" s="24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S29" s="24" t="s">
+        <v>1060</v>
+      </c>
+      <c r="T29" s="46"/>
+      <c r="U29" s="24" t="s">
+        <v>1059</v>
+      </c>
+      <c r="V29" s="46"/>
+      <c r="W29" s="24"/>
       <c r="X29" s="63"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="11"/>
+      <c r="AC29" s="28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="46"/>
       <c r="AK29" s="11"/>
       <c r="AL29" s="11"/>
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
       <c r="AO29" s="8" t="str">
-        <f>IF(A29="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(#REF!="○",", poison: true","")&amp;IF(Q29&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R29&lt;&gt;"",", subType: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S29&lt;&gt;"",", range: '"&amp;S29&amp;"'","")&amp;IF(U29&lt;&gt;"",", damage: '"&amp;U29&amp;"'","")&amp;IF(W29&lt;&gt;"",", capacity: '"&amp;W29&amp;"'","")&amp;IF(Y29&lt;&gt;"",", cost: '"&amp;Y29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z29="○",", sealable: true","")&amp;IF(AA29="○",", removable: true","")&amp;IF(AB29="○",", original: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A29="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R29&lt;&gt;"",", subType: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S29&lt;&gt;"",", range: '"&amp;S29&amp;"'","")&amp;IF(U29&lt;&gt;"",", damage: '"&amp;U29&amp;"'","")&amp;IF(W29&lt;&gt;"",", capacity: '"&amp;W29&amp;"'","")&amp;IF(X29&lt;&gt;"",", growth: "&amp;X29&amp;"","")&amp;IF(Y29&lt;&gt;"",", cost: '"&amp;Y29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z29="○",", sealable: true","")&amp;IF(AA29="○",", removable: true","")&amp;IF(AB29="○",", original: true","")&amp;"}")</f>
+        <v>, '15-korunu-o-n-y': {megami: 'korunu-original', name: '霧氷', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'むひょう', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '4-9', damage: '1/-', text: '【攻撃後】対応した《攻撃》と、このターンに相手が次に行う《攻撃》は-1/+0となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AP29" s="38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    /** 《霧氷》 */ export const KORUNU_O_N_Y: TCardId = '15-korunu-o-n-y';</v>
       </c>
       <c r="AQ29" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:52">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="9"/>
+        <v xml:space="preserve">    | '15-korunu-o-n-y'</v>
+      </c>
+      <c r="AR29" s="14"/>
+      <c r="AS29" s="14"/>
+      <c r="AT29" s="14"/>
+      <c r="AU29" s="14"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="14"/>
+      <c r="AX29" s="14"/>
+      <c r="AY29" s="14"/>
+      <c r="AZ29" s="14"/>
+    </row>
+    <row r="30" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A30" s="24" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R30" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="24"/>
       <c r="X30" s="63"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="12"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="11"/>
+      <c r="Y30" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC30" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="46"/>
       <c r="AK30" s="11"/>
       <c r="AL30" s="11"/>
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="8" t="str">
-        <f>IF(A30="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(#REF!="○",", poison: true","")&amp;IF(Q30&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R30&lt;&gt;"",", subType: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S30&lt;&gt;"",", range: '"&amp;S30&amp;"'","")&amp;IF(U30&lt;&gt;"",", damage: '"&amp;U30&amp;"'","")&amp;IF(W30&lt;&gt;"",", capacity: '"&amp;W30&amp;"'","")&amp;IF(Y30&lt;&gt;"",", cost: '"&amp;Y30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z30="○",", sealable: true","")&amp;IF(AA30="○",", removable: true","")&amp;IF(AB30="○",", original: true","")&amp;"}")</f>
-        <v/>
+        <f>IF(A30="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(Q30&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R30&lt;&gt;"",", subType: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S30&lt;&gt;"",", range: '"&amp;S30&amp;"'","")&amp;IF(U30&lt;&gt;"",", damage: '"&amp;U30&amp;"'","")&amp;IF(W30&lt;&gt;"",", capacity: '"&amp;W30&amp;"'","")&amp;IF(X30&lt;&gt;"",", growth: "&amp;X30&amp;"","")&amp;IF(Y30&lt;&gt;"",", cost: '"&amp;Y30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z30="○",", sealable: true","")&amp;IF(AA30="○",", removable: true","")&amp;IF(AB30="○",", original: true","")&amp;"}")</f>
+        <v>, '15-korunu-o-s-a': {megami: 'korunu-original', name: 'コルヌコラムヌカラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '現在のフェイズを終了する。（対応した《攻撃》は消える）\n【使用済】相手の終了フェイズに相手のオーラに空きがなければ、相手のオーラに1ダメージを与え、相手は1回凍結する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP30" s="38" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v xml:space="preserve">    /** 《コルヌコラムヌカラ》 */ export const KORUNU_O_S_A: TCardId = '15-korunu-o-s-a';</v>
       </c>
       <c r="AQ30" s="39" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v xml:space="preserve">    | '15-korunu-o-s-a'</v>
+      </c>
+      <c r="AR30" s="14"/>
+      <c r="AS30" s="14"/>
+      <c r="AT30" s="14"/>
+      <c r="AU30" s="14"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="14"/>
+      <c r="AX30" s="14"/>
+      <c r="AY30" s="14"/>
+      <c r="AZ30" s="14"/>
     </row>
     <row r="31" spans="1:52">
       <c r="X31" s="63"/>

--- a/sheet/cards_story.xlsx
+++ b/sheet/cards_story.xlsx
@@ -13,12 +13,12 @@
     <sheet name="物語セット" sheetId="7" r:id="rId4"/>
     <sheet name="マスタ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1094">
   <si>
     <t>メガミID</t>
   </si>
@@ -13680,6 +13680,261 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>トウケツ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>hagane-original</t>
+  </si>
+  <si>
+    <t>hagane-original</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ハガネ</t>
+  </si>
+  <si>
+    <t>破钟</t>
+  </si>
+  <si>
+    <t>하가네</t>
+  </si>
+  <si>
+    <t>Hagane</t>
+  </si>
+  <si>
+    <t>鎚</t>
+  </si>
+  <si>
+    <t>锤</t>
+  </si>
+  <si>
+    <t>망치</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>hagane</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>08-hagane-o-n-a</t>
+  </si>
+  <si>
+    <t>08-hagane-o-n-b</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-a</t>
+  </si>
+  <si>
+    <t>08-hagane-o-s-b</t>
+  </si>
+  <si>
+    <t>大跳ね</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>土砂雪崩</t>
+    <rPh sb="0" eb="2">
+      <t>ドシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナダレ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>どしゃなだれ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>だいはね</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>大旋空エクストリーム</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>大旋空ストリーム</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>だいせんくうストリーム</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>だいせんくうエクストリーム</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ダスト⇔間合：3</t>
+    <rPh sb="4" eb="6">
+      <t>マアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。
+----
+【即再起】遠心を持つカードを使用する。</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エンシン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>以下から1つを選ぶ。
+・間合→ダスト：10
+・ダスト→間合：3</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>マアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>マアイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>このカードの上に桜花結晶を1つダストから置く。
+【使用済】あなたが攻撃するならば、このカードの上の桜花結晶をすべてダストに送ってもよい。そうした場合、その個数に等しい回数だけその攻撃のライフへのダメージを2倍にする。
+【使用済】あなたが遠心を持つカードを使用した時、このカードを未使用に戻してもよい。</t>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>エンシン</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -13705,6 +13960,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -13807,6 +14063,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -14335,10 +14592,10 @@
   <dimension ref="A1:AF974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R21" sqref="R21"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -15585,25 +15842,56 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
     </row>
-    <row r="22" spans="1:32" ht="12" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>1077</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="4" t="str">
+        <f t="shared" ref="R22" si="10">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': { name: '"&amp;B22&amp;"', nameZh: '"&amp;C22&amp;"', nameZhG1: '"&amp;D22&amp;"', nameKo: '"&amp;E22&amp;"', nameEn: '"&amp;F22&amp;"', symbol: '"&amp;G22&amp;"', symbolZh: '"&amp;H22&amp;"', symbolZhG1: '"&amp;I22&amp;"', symbolKo: '"&amp;J22&amp;"', symbolEn: '"&amp;K22&amp;"'"&amp;IF(N22&lt;&gt;"",", base: '"&amp;M22&amp;"', anotherID: '"&amp;N22&amp;"'","")&amp;IF(O22="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P22="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q22="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L22 &amp; "'}"</f>
+        <v>, 'hagane-original': { name: 'ハガネ', nameZh: '破钟', nameZhG1: '破钟', nameKo: '하가네', nameEn: 'Hagane', symbol: '鎚', symbolZh: '锤', symbolZhG1: '锤', symbolKo: '망치', symbolEn: 'Hammer', base: 'hagane', anotherID: 'C8', tarotNo: '08'}</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -15616,6 +15904,8 @@
       <c r="AB22" s="3"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
     </row>
     <row r="23" spans="1:32" ht="12" customHeight="1">
       <c r="A23" s="1"/>
@@ -31217,10 +31507,10 @@
   <dimension ref="A1:AML62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC26" sqref="AC26"/>
+      <selection pane="bottomRight" activeCell="AC35" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -31440,11 +31730,11 @@
         <v>'05-oboro-o-n-a': {megami: 'oboro-original', name: '仙人呼法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'せんじんこほう', rubyEn: '', baseType: 'normal', type: 'action', text: '集中力を1得て、あなたの山札の一番上を伏せ札にする。\n【常時】このカードは捨て札にあるならば、伏せ札の枚数に数える。\n【常時】このカードが捨て札にあるならば、あなたは再構成によるダメージを受けない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP2" s="38" t="str">
-        <f t="shared" ref="AP2:AP30" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
+        <f t="shared" ref="AP2:AP34" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
         <v xml:space="preserve">    /** 《仙人呼法》 */ export const OBORO_O_N_A: TCardId = '05-oboro-o-n-a';</v>
       </c>
       <c r="AQ2" s="39" t="str">
-        <f t="shared" ref="AQ2:AQ30" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
+        <f t="shared" ref="AQ2:AQ34" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
         <v xml:space="preserve">    | '05-oboro-o-n-a'</v>
       </c>
     </row>
@@ -34568,58 +34858,366 @@
       <c r="AY30" s="14"/>
       <c r="AZ30" s="14"/>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" s="33" customFormat="1">
+      <c r="A31" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="24"/>
       <c r="X31" s="63"/>
-    </row>
-    <row r="32" spans="1:52">
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC31" s="28" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AD31" s="28"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="30"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="8" t="str">
+        <f>IF(A31="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"",", anotherID: '"&amp;C31&amp;"', replace: '"&amp;D31&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E31,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K31,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G31,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H31,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J31,"'","\'")&amp;"', ruby: '"&amp;F31&amp;"', rubyEn: '"&amp;L31&amp;IF(I31&lt;&gt;"", "', rubyZh: '"&amp;I31, "")&amp;"', baseType: '"&amp;VLOOKUP(M31,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N31="○",", extra: true","")&amp;IF(O31&lt;&gt;"",", extraFrom: '"&amp;O31&amp;"'","")&amp;IF(P31&lt;&gt;"",", exchangableTo: '"&amp;P31&amp;"'","")&amp;IF(Q31&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R31&lt;&gt;"",", subType: '"&amp;VLOOKUP(R31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S31&lt;&gt;"",", range: '"&amp;S31&amp;"'","")&amp;IF(U31&lt;&gt;"",", damage: '"&amp;U31&amp;"'","")&amp;IF(W31&lt;&gt;"",", capacity: '"&amp;W31&amp;"'","")&amp;IF(X31&lt;&gt;"",", growth: "&amp;X31&amp;"","")&amp;IF(Y31&lt;&gt;"",", cost: '"&amp;Y31&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC31, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD31&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF31&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z31="○",", sealable: true","")&amp;IF(AA31="○",", removable: true","")&amp;IF(AB31="○",", original: true","")&amp;"}")</f>
+        <v>, '08-hagane-o-n-a': {megami: 'hagane-original', name: '大跳ね', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいはね', rubyEn: '', baseType: 'normal', type: 'action', text: 'ダスト⇔間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+      </c>
+      <c r="AP31" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《大跳ね》 */ export const HAGANE_O_N_A: TCardId = '08-hagane-o-n-a';</v>
+      </c>
+      <c r="AQ31" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-hagane-o-n-a'</v>
+      </c>
+      <c r="AR31" s="14"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="14"/>
+      <c r="AZ31" s="14"/>
+    </row>
+    <row r="32" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A32" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="24"/>
       <c r="X32" s="63"/>
-    </row>
-    <row r="33" spans="24:24">
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC32" s="28" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="46"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="8" t="str">
+        <f>IF(A32="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R32&lt;&gt;"",", subType: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S32&lt;&gt;"",", range: '"&amp;S32&amp;"'","")&amp;IF(U32&lt;&gt;"",", damage: '"&amp;U32&amp;"'","")&amp;IF(W32&lt;&gt;"",", capacity: '"&amp;W32&amp;"'","")&amp;IF(X32&lt;&gt;"",", growth: "&amp;X32&amp;"","")&amp;IF(Y32&lt;&gt;"",", cost: '"&amp;Y32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z32="○",", sealable: true","")&amp;IF(AA32="○",", removable: true","")&amp;IF(AB32="○",", original: true","")&amp;"}")</f>
+        <v>, '08-hagane-o-n-b': {megami: 'hagane-original', name: '土砂雪崩', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どしゃなだれ', rubyEn: '', baseType: 'normal', type: 'action', text: 'このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。\n----\n【即再起】遠心を持つカードを使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+      </c>
+      <c r="AP32" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《土砂雪崩》 */ export const HAGANE_O_N_B: TCardId = '08-hagane-o-n-b';</v>
+      </c>
+      <c r="AQ32" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-hagane-o-n-b'</v>
+      </c>
+      <c r="AR32" s="14"/>
+      <c r="AS32" s="14"/>
+      <c r="AT32" s="14"/>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="14"/>
+      <c r="AW32" s="14"/>
+      <c r="AX32" s="14"/>
+      <c r="AY32" s="14"/>
+      <c r="AZ32" s="14"/>
+    </row>
+    <row r="33" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A33" s="24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="24"/>
       <c r="X33" s="63"/>
-    </row>
-    <row r="34" spans="24:24">
+      <c r="Y33" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC33" s="28" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="30"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="46"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="8" t="str">
+        <f>IF(A33="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R33&lt;&gt;"",", subType: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S33&lt;&gt;"",", range: '"&amp;S33&amp;"'","")&amp;IF(U33&lt;&gt;"",", damage: '"&amp;U33&amp;"'","")&amp;IF(W33&lt;&gt;"",", capacity: '"&amp;W33&amp;"'","")&amp;IF(X33&lt;&gt;"",", growth: "&amp;X33&amp;"","")&amp;IF(Y33&lt;&gt;"",", cost: '"&amp;Y33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z33="○",", sealable: true","")&amp;IF(AA33="○",", removable: true","")&amp;IF(AB33="○",", original: true","")&amp;"}")</f>
+        <v>, '08-hagane-o-s-a': {megami: 'hagane-original', name: '大旋空ストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '以下から1つを選ぶ。\n・間合→ダスト：10\n・ダスト→間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+      </c>
+      <c r="AP33" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《大旋空ストリーム》 */ export const HAGANE_O_S_A: TCardId = '08-hagane-o-s-a';</v>
+      </c>
+      <c r="AQ33" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-hagane-o-s-a'</v>
+      </c>
+      <c r="AR33" s="14"/>
+      <c r="AS33" s="14"/>
+      <c r="AT33" s="14"/>
+      <c r="AU33" s="14"/>
+      <c r="AV33" s="14"/>
+      <c r="AW33" s="14"/>
+      <c r="AX33" s="14"/>
+      <c r="AY33" s="14"/>
+      <c r="AZ33" s="14"/>
+    </row>
+    <row r="34" spans="1:52" s="33" customFormat="1" ht="72">
+      <c r="A34" s="24" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="24"/>
       <c r="X34" s="63"/>
-    </row>
-    <row r="35" spans="24:24">
+      <c r="Y34" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC34" s="28" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="46"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="8" t="str">
+        <f>IF(A34="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"",", anotherID: '"&amp;C34&amp;"', replace: '"&amp;D34&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E34,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K34,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G34,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H34,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J34,"'","\'")&amp;"', ruby: '"&amp;F34&amp;"', rubyEn: '"&amp;L34&amp;IF(I34&lt;&gt;"", "', rubyZh: '"&amp;I34, "")&amp;"', baseType: '"&amp;VLOOKUP(M34,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N34="○",", extra: true","")&amp;IF(O34&lt;&gt;"",", extraFrom: '"&amp;O34&amp;"'","")&amp;IF(P34&lt;&gt;"",", exchangableTo: '"&amp;P34&amp;"'","")&amp;IF(Q34&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R34&lt;&gt;"",", subType: '"&amp;VLOOKUP(R34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S34&lt;&gt;"",", range: '"&amp;S34&amp;"'","")&amp;IF(U34&lt;&gt;"",", damage: '"&amp;U34&amp;"'","")&amp;IF(W34&lt;&gt;"",", capacity: '"&amp;W34&amp;"'","")&amp;IF(X34&lt;&gt;"",", growth: "&amp;X34&amp;"","")&amp;IF(Y34&lt;&gt;"",", cost: '"&amp;Y34&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC34, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD34&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF34&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z34="○",", sealable: true","")&amp;IF(AA34="○",", removable: true","")&amp;IF(AB34="○",", original: true","")&amp;"}")</f>
+        <v>, '08-hagane-o-s-b': {megami: 'hagane-original', name: '大旋空エクストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうエクストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このカードの上に桜花結晶を1つダストから置く。\n【使用済】あなたが攻撃するならば、このカードの上の桜花結晶をすべてダストに送ってもよい。そうした場合、その個数に等しい回数だけその攻撃のライフへのダメージを2倍にする。\n【使用済】あなたが遠心を持つカードを使用した時、このカードを未使用に戻してもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+      </c>
+      <c r="AP34" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《大旋空エクストリーム》 */ export const HAGANE_O_S_B: TCardId = '08-hagane-o-s-b';</v>
+      </c>
+      <c r="AQ34" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-hagane-o-s-b'</v>
+      </c>
+      <c r="AR34" s="14"/>
+      <c r="AS34" s="14"/>
+      <c r="AT34" s="14"/>
+      <c r="AU34" s="14"/>
+      <c r="AV34" s="14"/>
+      <c r="AW34" s="14"/>
+      <c r="AX34" s="14"/>
+      <c r="AY34" s="14"/>
+      <c r="AZ34" s="14"/>
+    </row>
+    <row r="35" spans="1:52">
       <c r="X35" s="63"/>
     </row>
-    <row r="36" spans="24:24">
+    <row r="36" spans="1:52">
       <c r="X36" s="63"/>
     </row>
-    <row r="37" spans="24:24">
+    <row r="37" spans="1:52">
       <c r="X37" s="63"/>
     </row>
-    <row r="38" spans="24:24">
+    <row r="38" spans="1:52">
       <c r="X38" s="63"/>
     </row>
-    <row r="39" spans="24:24">
+    <row r="39" spans="1:52">
       <c r="X39" s="63"/>
     </row>
-    <row r="40" spans="24:24">
+    <row r="40" spans="1:52">
       <c r="X40" s="63"/>
     </row>
-    <row r="41" spans="24:24">
+    <row r="41" spans="1:52">
       <c r="X41" s="63"/>
     </row>
-    <row r="42" spans="24:24">
+    <row r="42" spans="1:52">
       <c r="X42" s="63"/>
     </row>
-    <row r="43" spans="24:24">
+    <row r="43" spans="1:52">
       <c r="X43" s="9"/>
     </row>
-    <row r="44" spans="24:24">
+    <row r="44" spans="1:52">
       <c r="X44" s="9"/>
     </row>
-    <row r="45" spans="24:24">
+    <row r="45" spans="1:52">
       <c r="X45" s="9"/>
     </row>
-    <row r="46" spans="24:24">
+    <row r="46" spans="1:52">
       <c r="X46" s="9"/>
     </row>
-    <row r="47" spans="24:24">
+    <row r="47" spans="1:52">
       <c r="X47" s="9"/>
     </row>
-    <row r="48" spans="24:24">
+    <row r="48" spans="1:52">
       <c r="X48" s="9"/>
     </row>
     <row r="49" spans="24:24">

--- a/sheet/cards_story.xlsx
+++ b/sheet/cards_story.xlsx
@@ -13807,57 +13807,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。
-----
-【即再起】遠心を持つカードを使用する。</t>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ソク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>エンシン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>以下から1つを選ぶ。
-・間合→ダスト：10
-・ダスト→間合：3</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>マアイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>マアイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>このカードの上に桜花結晶を1つダストから置く。
 【使用済】あなたが攻撃するならば、このカードの上の桜花結晶をすべてダストに送ってもよい。そうした場合、その個数に等しい回数だけその攻撃のライフへのダメージを2倍にする。
 【使用済】あなたが遠心を持つカードを使用した時、このカードを未使用に戻してもよい。</t>
@@ -13936,6 +13885,18 @@
     <rPh sb="143" eb="144">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。
+----
+【即再起】遠心を持つカードを使用する。</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>以下から1つを選ぶ。
+・間合→ダスト：10
+・ダスト→間合：3</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -13960,7 +13921,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -14063,7 +14023,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -31507,10 +31466,10 @@
   <dimension ref="A1:AML62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC35" sqref="AC35"/>
+      <selection pane="bottomRight" activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -34981,7 +34940,7 @@
         <v>190</v>
       </c>
       <c r="AC32" s="28" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="AD32" s="28"/>
       <c r="AE32" s="29"/>
@@ -34996,7 +34955,7 @@
       <c r="AN32" s="11"/>
       <c r="AO32" s="8" t="str">
         <f>IF(A32="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R32&lt;&gt;"",", subType: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S32&lt;&gt;"",", range: '"&amp;S32&amp;"'","")&amp;IF(U32&lt;&gt;"",", damage: '"&amp;U32&amp;"'","")&amp;IF(W32&lt;&gt;"",", capacity: '"&amp;W32&amp;"'","")&amp;IF(X32&lt;&gt;"",", growth: "&amp;X32&amp;"","")&amp;IF(Y32&lt;&gt;"",", cost: '"&amp;Y32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z32="○",", sealable: true","")&amp;IF(AA32="○",", removable: true","")&amp;IF(AB32="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-n-b': {megami: 'hagane-original', name: '土砂雪崩', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どしゃなだれ', rubyEn: '', baseType: 'normal', type: 'action', text: 'このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。\n----\n【即再起】遠心を持つカードを使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <v>, '08-hagane-o-n-b': {megami: 'hagane-original', name: '土砂雪崩', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どしゃなだれ', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・間合→ダスト：10\n・ダスト→間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP32" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35077,7 +35036,7 @@
       <c r="AN33" s="11"/>
       <c r="AO33" s="8" t="str">
         <f>IF(A33="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R33&lt;&gt;"",", subType: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S33&lt;&gt;"",", range: '"&amp;S33&amp;"'","")&amp;IF(U33&lt;&gt;"",", damage: '"&amp;U33&amp;"'","")&amp;IF(W33&lt;&gt;"",", capacity: '"&amp;W33&amp;"'","")&amp;IF(X33&lt;&gt;"",", growth: "&amp;X33&amp;"","")&amp;IF(Y33&lt;&gt;"",", cost: '"&amp;Y33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z33="○",", sealable: true","")&amp;IF(AA33="○",", removable: true","")&amp;IF(AB33="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-s-a': {megami: 'hagane-original', name: '大旋空ストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '以下から1つを選ぶ。\n・間合→ダスト：10\n・ダスト→間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <v>, '08-hagane-o-s-a': {megami: 'hagane-original', name: '大旋空ストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。\n----\n【即再起】遠心を持つカードを使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
       </c>
       <c r="AP33" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35143,7 +35102,7 @@
         <v>190</v>
       </c>
       <c r="AC34" s="28" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="AD34" s="28"/>
       <c r="AE34" s="29"/>

--- a/sheet/cards_story.xlsx
+++ b/sheet/cards_story.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1120">
   <si>
     <t>メガミID</t>
   </si>
@@ -13897,6 +13897,225 @@
     <t>以下から1つを選ぶ。
 ・間合→ダスト：10
 ・ダスト→間合：3</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>08-yukihi-o-n-a</t>
+  </si>
+  <si>
+    <t>yukihi-original</t>
+  </si>
+  <si>
+    <t>08-yukihi-o-s-a</t>
+  </si>
+  <si>
+    <t>08-yukihi-o-s-b</t>
+  </si>
+  <si>
+    <t>ユキヒ</t>
+  </si>
+  <si>
+    <t>雪灯</t>
+  </si>
+  <si>
+    <t>유키히</t>
+  </si>
+  <si>
+    <t>Yukihi</t>
+  </si>
+  <si>
+    <t>傘/簪</t>
+  </si>
+  <si>
+    <t>伞/簪</t>
+  </si>
+  <si>
+    <t>우산/비녀</t>
+  </si>
+  <si>
+    <t>Umbrella/Hairpin</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>yukihi-original</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>yukihi</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>こころがさね</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ゆきのいろ</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>滅灯淀路</t>
+    <rPh sb="0" eb="1">
+      <t>ホロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>ほろびのよどみち</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>対応</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>2/1</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>あなたは集中力を1得る。傘の開閉を行ってもよい。</t>
+    <rPh sb="4" eb="7">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>（ゲーム開始時はこちらが表向きであり、「ゆきのいろ」が使用済と扱う）
+【常時】このカードはあなたの傘が閉じている場合のみ使用できる。
+【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。</t>
+    <rPh sb="4" eb="7">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>オモテム</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シヨウズ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>シヨウスミ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="86" eb="90">
+      <t>キホンドウサ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>終端
+相手のライフに1ダメージを与え、相手は畏縮する。
+【常時】このカードはあなたの傘が開いている場合のみ使用できる。
+【使用済】あなたは開始フェイズに集中力を得られない。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウタン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イシュク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>シヨウスミ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>シュウチュウリョク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>エ</t>
+    </rPh>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -14551,10 +14770,10 @@
   <dimension ref="A1:AF974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -14678,8 +14897,8 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="4" t="str">
-        <f t="shared" ref="R2:R3" si="0">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L2 &amp; "'}"</f>
-        <v>'yurina-story-0': { name: '天音揺波', nameZh: '天音摇波', nameZhG1: '天音摇波', nameKo: '아마네 유리나', nameEn: 'Yurina Amane', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S0', tarotNo: '01'}</v>
+        <f>"'"&amp;A2&amp;"': { name: '"&amp;B2&amp;"', nameZh: '"&amp;C2&amp;"', nameZhG1: '"&amp;D2&amp;"', nameKo: '"&amp;E2&amp;"', nameEn: '"&amp;F2&amp;"', symbol: '"&amp;G2&amp;"', symbolZh: '"&amp;H2&amp;"', symbolZhG1: '"&amp;I2&amp;"', symbolKo: '"&amp;J2&amp;"', symbolEn: '"&amp;K2&amp;"'"&amp;IF(N2&lt;&gt;"",", base: '"&amp;M2&amp;"', anotherID: '"&amp;N2&amp;"'","")&amp;IF(O2="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P2="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q2="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L2 &amp; "'},"</f>
+        <v>'yurina-story-0': { name: '天音揺波', nameZh: '天音摇波', nameZhG1: '天音摇波', nameKo: '아마네 유리나', nameEn: 'Yurina Amane', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S0', tarotNo: '01'},</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -14731,8 +14950,8 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>, 'saine-story-0': { name: '氷雨細音', nameZh: '冰雨细音', nameZhG1: '冰雨细音', nameKo: '히사메 사이네', nameEn: 'Saine Hisame', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'saine', anotherID: 'S0', tarotNo: '02'}</v>
+        <f t="shared" ref="R3:R23" si="0">"'"&amp;A3&amp;"': { name: '"&amp;B3&amp;"', nameZh: '"&amp;C3&amp;"', nameZhG1: '"&amp;D3&amp;"', nameKo: '"&amp;E3&amp;"', nameEn: '"&amp;F3&amp;"', symbol: '"&amp;G3&amp;"', symbolZh: '"&amp;H3&amp;"', symbolZhG1: '"&amp;I3&amp;"', symbolKo: '"&amp;J3&amp;"', symbolEn: '"&amp;K3&amp;"'"&amp;IF(N3&lt;&gt;"",", base: '"&amp;M3&amp;"', anotherID: '"&amp;N3&amp;"'","")&amp;IF(O3="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P3="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q3="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L3 &amp; "'},"</f>
+        <v>'saine-story-0': { name: '氷雨細音', nameZh: '冰雨细音', nameZhG1: '冰雨细音', nameKo: '히사메 사이네', nameEn: 'Saine Hisame', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'saine', anotherID: 'S0', tarotNo: '02'},</v>
       </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -14784,8 +15003,8 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="4" t="str">
-        <f t="shared" ref="R4:R5" si="1">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': { name: '"&amp;B4&amp;"', nameZh: '"&amp;C4&amp;"', nameZhG1: '"&amp;D4&amp;"', nameKo: '"&amp;E4&amp;"', nameEn: '"&amp;F4&amp;"', symbol: '"&amp;G4&amp;"', symbolZh: '"&amp;H4&amp;"', symbolZhG1: '"&amp;I4&amp;"', symbolKo: '"&amp;J4&amp;"', symbolEn: '"&amp;K4&amp;"'"&amp;IF(N4&lt;&gt;"",", base: '"&amp;M4&amp;"', anotherID: '"&amp;N4&amp;"'","")&amp;IF(O4="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P4="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q4="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L4 &amp; "'}"</f>
-        <v>, 'yurina-story-1': { name: '天音揺波', nameZh: '天音摇波', nameZhG1: '天音摇波', nameKo: '아마네 유리나', nameEn: 'Yurina Amane', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S1', tarotNo: '01'}</v>
+        <f t="shared" si="0"/>
+        <v>'yurina-story-1': { name: '天音揺波', nameZh: '天音摇波', nameZhG1: '天音摇波', nameKo: '아마네 유리나', nameEn: 'Yurina Amane', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S1', tarotNo: '01'},</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -14837,8 +15056,8 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>, 'saine-story-1': { name: '氷雨細音', nameZh: '冰雨细音', nameZhG1: '冰雨细音', nameKo: '히사메 사이네', nameEn: 'Saine Hisame', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'saine', anotherID: 'S1', tarotNo: '02'}</v>
+        <f t="shared" si="0"/>
+        <v>'saine-story-1': { name: '氷雨細音', nameZh: '冰雨细音', nameZhG1: '冰雨细音', nameKo: '히사메 사이네', nameEn: 'Saine Hisame', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'saine', anotherID: 'S1', tarotNo: '02'},</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -14890,8 +15109,8 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="4" t="str">
-        <f t="shared" ref="R6:R9" si="2">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': { name: '"&amp;B6&amp;"', nameZh: '"&amp;C6&amp;"', nameZhG1: '"&amp;D6&amp;"', nameKo: '"&amp;E6&amp;"', nameEn: '"&amp;F6&amp;"', symbol: '"&amp;G6&amp;"', symbolZh: '"&amp;H6&amp;"', symbolZhG1: '"&amp;I6&amp;"', symbolKo: '"&amp;J6&amp;"', symbolEn: '"&amp;K6&amp;"'"&amp;IF(N6&lt;&gt;"",", base: '"&amp;M6&amp;"', anotherID: '"&amp;N6&amp;"'","")&amp;IF(O6="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P6="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q6="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L6 &amp; "'}"</f>
-        <v>, 'chikage-story-2': { name: '闇昏千影', nameZh: '暗昏千影', nameZhG1: '暗昏千影', nameKo: '야미쿠라 치카게', nameEn: 'Chikage Yamikura', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S2', tarotNo: '09'}</v>
+        <f t="shared" si="0"/>
+        <v>'chikage-story-2': { name: '闇昏千影', nameZh: '暗昏千影', nameZhG1: '暗昏千影', nameKo: '야미쿠라 치카게', nameEn: 'Chikage Yamikura', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: 'yurina', anotherID: 'S2', tarotNo: '09'},</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -14941,8 +15160,8 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'tatsu-story-2': { name: '龍ノ宮一志', nameZh: '龙之宫一志', nameZhG1: '龙之宫一志', nameKo: '타츠노미야 잇시', nameEn: 'Isshi Tatsunomiya', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: '', anotherID: 'S2', tarotNo: '91'}</v>
+        <f t="shared" si="0"/>
+        <v>'tatsu-story-2': { name: '龍ノ宮一志', nameZh: '龙之宫一志', nameZhG1: '龙之宫一志', nameKo: '타츠노미야 잇시', nameEn: 'Isshi Tatsunomiya', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: '', anotherID: 'S2', tarotNo: '91'},</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -15004,8 +15223,8 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'yatsuha-story-9': { name: 'ヤツハ', nameZh: '八叶', nameZhG1: '八叶', nameKo: '야츠하', nameEn: 'Yatsuha', symbol: '鏡', symbolZh: '镜', symbolZhG1: '镜', symbolKo: '부채', symbolEn: 'Mirror', base: 'yatsuha', anotherID: 'S9', tarotNo: '16'}</v>
+        <f t="shared" si="0"/>
+        <v>'yatsuha-story-9': { name: 'ヤツハ', nameZh: '八叶', nameZhG1: '八叶', nameKo: '야츠하', nameEn: 'Yatsuha', symbol: '鏡', symbolZh: '镜', symbolZhG1: '镜', symbolKo: '부채', symbolEn: 'Mirror', base: 'yatsuha', anotherID: 'S9', tarotNo: '16'},</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -15055,8 +15274,8 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>, 'yura-story-9': { name: '遥原夕羅', nameZh: '遥原夕罗', nameZhG1: '遥原夕罗', nameKo: '하루하라 유라', nameEn: 'Yura Harubara', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: '', anotherID: 'S9', tarotNo: '92'}</v>
+        <f t="shared" si="0"/>
+        <v>'yura-story-9': { name: '遥原夕羅', nameZh: '遥原夕罗', nameZhG1: '遥原夕罗', nameKo: '하루하라 유라', nameEn: 'Yura Harubara', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', base: '', anotherID: 'S9', tarotNo: '92'},</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -15120,8 +15339,8 @@
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="4" t="str">
-        <f t="shared" ref="R10:R11" si="3">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': { name: '"&amp;B10&amp;"', nameZh: '"&amp;C10&amp;"', nameZhG1: '"&amp;D10&amp;"', nameKo: '"&amp;E10&amp;"', nameEn: '"&amp;F10&amp;"', symbol: '"&amp;G10&amp;"', symbolZh: '"&amp;H10&amp;"', symbolZhG1: '"&amp;I10&amp;"', symbolKo: '"&amp;J10&amp;"', symbolEn: '"&amp;K10&amp;"'"&amp;IF(N10&lt;&gt;"",", base: '"&amp;M10&amp;"', anotherID: '"&amp;N10&amp;"'","")&amp;IF(O10="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P10="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q10="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L10 &amp; "'}"</f>
-        <v>, 'korunu-story-10': { name: 'コルヌ', nameZh: '凝努', nameZhG1: '凝努', nameKo: '코르누', nameEn: 'Korunu', symbol: '橇', symbolZh: '橇', symbolZhG1: '橇', symbolKo: '썰매', symbolEn: 'Skate blade', base: 'korunu', anotherID: 'S10', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '15'}</v>
+        <f t="shared" si="0"/>
+        <v>'korunu-story-10': { name: 'コルヌ', nameZh: '凝努', nameZhG1: '凝努', nameKo: '코르누', nameEn: 'Korunu', symbol: '橇', symbolZh: '橇', symbolZhG1: '橇', symbolKo: '썰매', symbolEn: 'Skate blade', base: 'korunu', anotherID: 'S10', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '15'},</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -15185,8 +15404,8 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>, 'saine-story-12': { name: '徒神サイネ', nameZh: '徒神细音', nameZhG1: '徒神细音', nameKo: '도신 사이네', nameEn: 'Adagami Saine', symbol: '拒絶', symbolZh: '拒绝', symbolZhG1: '拒绝', symbolKo: '거절', symbolEn: 'Refuse', base: 'saine', anotherID: 'S12', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '02'}</v>
+        <f t="shared" si="0"/>
+        <v>'saine-story-12': { name: '徒神サイネ', nameZh: '徒神细音', nameZhG1: '徒神细音', nameKo: '도신 사이네', nameEn: 'Adagami Saine', symbol: '拒絶', symbolZh: '拒绝', symbolZhG1: '拒绝', symbolKo: '거절', symbolEn: 'Refuse', base: 'saine', anotherID: 'S12', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '02'},</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -15248,8 +15467,8 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="4" t="str">
-        <f t="shared" ref="R12:R15" si="4">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': { name: '"&amp;B12&amp;"', nameZh: '"&amp;C12&amp;"', nameZhG1: '"&amp;D12&amp;"', nameKo: '"&amp;E12&amp;"', nameEn: '"&amp;F12&amp;"', symbol: '"&amp;G12&amp;"', symbolZh: '"&amp;H12&amp;"', symbolZhG1: '"&amp;I12&amp;"', symbolKo: '"&amp;J12&amp;"', symbolEn: '"&amp;K12&amp;"'"&amp;IF(N12&lt;&gt;"",", base: '"&amp;M12&amp;"', anotherID: '"&amp;N12&amp;"'","")&amp;IF(O12="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P12="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q12="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L12 &amp; "'}"</f>
-        <v>, 'tokoyo-story-13': { name: 'トコヨ', nameZh: '常世', nameZhG1: '常世', nameKo: '토코요', nameEn: 'Tokoyo', symbol: '扇', symbolZh: '扇', symbolZhG1: '扇', symbolKo: '부채', symbolEn: 'Fan', base: 'tokoyo', anotherID: 'S13', tarotNo: '04'}</v>
+        <f t="shared" si="0"/>
+        <v>'tokoyo-story-13': { name: 'トコヨ', nameZh: '常世', nameZhG1: '常世', nameKo: '토코요', nameEn: 'Tokoyo', symbol: '扇', symbolZh: '扇', symbolZhG1: '扇', symbolKo: '부채', symbolEn: 'Fan', base: 'tokoyo', anotherID: 'S13', tarotNo: '04'},</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -15313,8 +15532,8 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>, 'yatsuha-story-15': { name: 'ヤツハ', nameZh: '八叶', nameZhG1: '八叶', nameKo: '야츠하', nameEn: 'Yatsuha', symbol: '鏡', symbolZh: '镜', symbolZhG1: '镜', symbolKo: '부채', symbolEn: 'Mirror', base: 'yatsuha', anotherID: 'S15', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '16'}</v>
+        <f t="shared" si="0"/>
+        <v>'yatsuha-story-15': { name: 'ヤツハ', nameZh: '八叶', nameZhG1: '八叶', nameKo: '야츠하', nameEn: 'Yatsuha', symbol: '鏡', symbolZh: '镜', symbolZhG1: '镜', symbolKo: '부채', symbolEn: 'Mirror', base: 'yatsuha', anotherID: 'S15', notExistCardSets: ['na-s2', 'na-s3'] as CardSet[], tarotNo: '16'},</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -15354,8 +15573,8 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="4" t="str">
-        <f>IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': { name: '"&amp;B14&amp;"', nameZh: '"&amp;C14&amp;"', nameZhG1: '"&amp;D14&amp;"', nameKo: '"&amp;E14&amp;"', nameEn: '"&amp;F14&amp;"', symbol: '"&amp;G14&amp;"', symbolZh: '"&amp;H14&amp;"', symbolZhG1: '"&amp;I14&amp;"', symbolKo: '"&amp;J14&amp;"', symbolEn: '"&amp;K14&amp;"'"&amp;IF(N14&lt;&gt;"",", base: '"&amp;M14&amp;"', anotherID: '"&amp;N14&amp;"'","")&amp;IF(O14="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P14="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q14="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L14 &amp; "'}"</f>
-        <v>, 'utsuro-hajimari': { name: 'ウツロ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', tarotNo: '93'}</v>
+        <f t="shared" si="0"/>
+        <v>'utsuro-hajimari': { name: 'ウツロ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', tarotNo: '93'},</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -15395,8 +15614,8 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>, 'honoka-hajimari': { name: 'ホノカ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', tarotNo: '94'}</v>
+        <f t="shared" si="0"/>
+        <v>'honoka-hajimari': { name: 'ホノカ', nameZh: '', nameZhG1: '', nameKo: '', nameEn: '', symbol: '', symbolZh: '', symbolZhG1: '', symbolKo: '', symbolEn: '', tarotNo: '94'},</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -15458,8 +15677,8 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="4" t="str">
-        <f t="shared" ref="R16:R17" si="5">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': { name: '"&amp;B16&amp;"', nameZh: '"&amp;C16&amp;"', nameZhG1: '"&amp;D16&amp;"', nameKo: '"&amp;E16&amp;"', nameEn: '"&amp;F16&amp;"', symbol: '"&amp;G16&amp;"', symbolZh: '"&amp;H16&amp;"', symbolZhG1: '"&amp;I16&amp;"', symbolKo: '"&amp;J16&amp;"', symbolEn: '"&amp;K16&amp;"'"&amp;IF(N16&lt;&gt;"",", base: '"&amp;M16&amp;"', anotherID: '"&amp;N16&amp;"'","")&amp;IF(O16="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P16="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q16="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L16 &amp; "'}"</f>
-        <v>, 'oboro-original': { name: 'オボロ', nameZh: '胧', nameZhG1: '胧', nameKo: '오보로', nameEn: 'Oboro', symbol: '忍', symbolZh: '忍', symbolZhG1: '忍', symbolKo: '인술', symbolEn: 'Ninjutsu', base: 'oboro', anotherID: 'C1', tarotNo: '05'}</v>
+        <f t="shared" si="0"/>
+        <v>'oboro-original': { name: 'オボロ', nameZh: '胧', nameZhG1: '胧', nameKo: '오보로', nameEn: 'Oboro', symbol: '忍', symbolZh: '忍', symbolZhG1: '忍', symbolKo: '인술', symbolEn: 'Ninjutsu', base: 'oboro', anotherID: 'C1', tarotNo: '05'},</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -15523,8 +15742,8 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="4" t="str">
-        <f t="shared" si="5"/>
-        <v>, 'chikage-original': { name: 'チカゲ', nameZh: '千影', nameZhG1: '千影', nameKo: '치카게', nameEn: 'Chikage', symbol: '毒', symbolZh: '毒', symbolZhG1: '毒', symbolKo: '독', symbolEn: 'Poison', base: 'chikage', anotherID: 'C2', tarotNo: '09'}</v>
+        <f t="shared" si="0"/>
+        <v>'chikage-original': { name: 'チカゲ', nameZh: '千影', nameZhG1: '千影', nameKo: '치카게', nameEn: 'Chikage', symbol: '毒', symbolZh: '毒', symbolZhG1: '毒', symbolKo: '독', symbolEn: 'Poison', base: 'chikage', anotherID: 'C2', tarotNo: '09'},</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -15588,8 +15807,8 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="4" t="str">
-        <f t="shared" ref="R18" si="6">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': { name: '"&amp;B18&amp;"', nameZh: '"&amp;C18&amp;"', nameZhG1: '"&amp;D18&amp;"', nameKo: '"&amp;E18&amp;"', nameEn: '"&amp;F18&amp;"', symbol: '"&amp;G18&amp;"', symbolZh: '"&amp;H18&amp;"', symbolZhG1: '"&amp;I18&amp;"', symbolKo: '"&amp;J18&amp;"', symbolEn: '"&amp;K18&amp;"'"&amp;IF(N18&lt;&gt;"",", base: '"&amp;M18&amp;"', anotherID: '"&amp;N18&amp;"'","")&amp;IF(O18="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P18="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q18="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L18 &amp; "'}"</f>
-        <v>, 'raira-original': { name: 'ライラ', nameZh: '雷螺', nameZhG1: '雷螺', nameKo: '라이라', nameEn: 'Raira', symbol: '爪', symbolZh: '爪', symbolZhG1: '爪', symbolKo: '발톱', symbolEn: 'Claw', base: 'raira', anotherID: 'C3', tarotNo: '12'}</v>
+        <f t="shared" si="0"/>
+        <v>'raira-original': { name: 'ライラ', nameZh: '雷螺', nameZhG1: '雷螺', nameKo: '라이라', nameEn: 'Raira', symbol: '爪', symbolZh: '爪', symbolZhG1: '爪', symbolKo: '발톱', symbolEn: 'Claw', base: 'raira', anotherID: 'C3', tarotNo: '12'},</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -15653,8 +15872,8 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="4" t="str">
-        <f t="shared" ref="R19" si="7">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': { name: '"&amp;B19&amp;"', nameZh: '"&amp;C19&amp;"', nameZhG1: '"&amp;D19&amp;"', nameKo: '"&amp;E19&amp;"', nameEn: '"&amp;F19&amp;"', symbol: '"&amp;G19&amp;"', symbolZh: '"&amp;H19&amp;"', symbolZhG1: '"&amp;I19&amp;"', symbolKo: '"&amp;J19&amp;"', symbolEn: '"&amp;K19&amp;"'"&amp;IF(N19&lt;&gt;"",", base: '"&amp;M19&amp;"', anotherID: '"&amp;N19&amp;"'","")&amp;IF(O19="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P19="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q19="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L19 &amp; "'}"</f>
-        <v>, 'megumi-original': { name: 'メグミ', nameZh: '希', nameZhG1: '希', nameKo: '메구미', nameEn: 'Megumi', symbol: '唐棹', symbolZh: '连枷', symbolZhG1: '梿枷', symbolKo: '도리깨', symbolEn: 'Flail', base: 'megumi', anotherID: 'C4', tarotNo: '19'}</v>
+        <f t="shared" si="0"/>
+        <v>'megumi-original': { name: 'メグミ', nameZh: '希', nameZhG1: '希', nameKo: '메구미', nameEn: 'Megumi', symbol: '唐棹', symbolZh: '连枷', symbolZhG1: '梿枷', symbolKo: '도리깨', symbolEn: 'Flail', base: 'megumi', anotherID: 'C4', tarotNo: '19'},</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -15718,8 +15937,8 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="4" t="str">
-        <f t="shared" ref="R20" si="8">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': { name: '"&amp;B20&amp;"', nameZh: '"&amp;C20&amp;"', nameZhG1: '"&amp;D20&amp;"', nameKo: '"&amp;E20&amp;"', nameEn: '"&amp;F20&amp;"', symbol: '"&amp;G20&amp;"', symbolZh: '"&amp;H20&amp;"', symbolZhG1: '"&amp;I20&amp;"', symbolKo: '"&amp;J20&amp;"', symbolEn: '"&amp;K20&amp;"'"&amp;IF(N20&lt;&gt;"",", base: '"&amp;M20&amp;"', anotherID: '"&amp;N20&amp;"'","")&amp;IF(O20="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P20="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q20="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L20 &amp; "'}"</f>
-        <v>, 'shinra-original': { name: 'シンラ', nameZh: '森罗', nameZhG1: '森罗', nameKo: '신라', nameEn: 'Shinra', symbol: '書', symbolZh: '书', symbolZhG1: '书', symbolKo: '책', symbolEn: 'Scroll', base: 'shinra', anotherID: 'C5', tarotNo: '07'}</v>
+        <f t="shared" si="0"/>
+        <v>'shinra-original': { name: 'シンラ', nameZh: '森罗', nameZhG1: '森罗', nameKo: '신라', nameEn: 'Shinra', symbol: '書', symbolZh: '书', symbolZhG1: '书', symbolKo: '책', symbolEn: 'Scroll', base: 'shinra', anotherID: 'C5', tarotNo: '07'},</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -15783,8 +16002,8 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="4" t="str">
-        <f t="shared" ref="R21" si="9">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': { name: '"&amp;B21&amp;"', nameZh: '"&amp;C21&amp;"', nameZhG1: '"&amp;D21&amp;"', nameKo: '"&amp;E21&amp;"', nameEn: '"&amp;F21&amp;"', symbol: '"&amp;G21&amp;"', symbolZh: '"&amp;H21&amp;"', symbolZhG1: '"&amp;I21&amp;"', symbolKo: '"&amp;J21&amp;"', symbolEn: '"&amp;K21&amp;"'"&amp;IF(N21&lt;&gt;"",", base: '"&amp;M21&amp;"', anotherID: '"&amp;N21&amp;"'","")&amp;IF(O21="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P21="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q21="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L21 &amp; "'}"</f>
-        <v>, 'korunu-original': { name: 'コルヌ', nameZh: '凝努', nameZhG1: '凝努', nameKo: '코르누', nameEn: 'Korunu', symbol: '橇', symbolZh: '橇', symbolZhG1: '橇', symbolKo: '썰매', symbolEn: 'Skate blade', base: 'korunu', anotherID: 'C7', tarotNo: '15'}</v>
+        <f t="shared" si="0"/>
+        <v>'korunu-original': { name: 'コルヌ', nameZh: '凝努', nameZhG1: '凝努', nameKo: '코르누', nameEn: 'Korunu', symbol: '橇', symbolZh: '橇', symbolZhG1: '橇', symbolKo: '썰매', symbolEn: 'Skate blade', base: 'korunu', anotherID: 'C7', tarotNo: '15'},</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -15848,8 +16067,8 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="4" t="str">
-        <f t="shared" ref="R22" si="10">IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': { name: '"&amp;B22&amp;"', nameZh: '"&amp;C22&amp;"', nameZhG1: '"&amp;D22&amp;"', nameKo: '"&amp;E22&amp;"', nameEn: '"&amp;F22&amp;"', symbol: '"&amp;G22&amp;"', symbolZh: '"&amp;H22&amp;"', symbolZhG1: '"&amp;I22&amp;"', symbolKo: '"&amp;J22&amp;"', symbolEn: '"&amp;K22&amp;"'"&amp;IF(N22&lt;&gt;"",", base: '"&amp;M22&amp;"', anotherID: '"&amp;N22&amp;"'","")&amp;IF(O22="○", ", notExistCardSets: ['na-s2'] as CardSet[]", IF(P22="○", ", notExistCardSets: ['na-s2', 'na-s3'] as CardSet[]", IF(Q22="○", ", notExistCardSets: ['na-s2', 'na-s3', 'na-s4', 'na-s4-pre'] as CardSet[]", ""))) &amp; ", tarotNo: '" &amp; L22 &amp; "'}"</f>
-        <v>, 'hagane-original': { name: 'ハガネ', nameZh: '破钟', nameZhG1: '破钟', nameKo: '하가네', nameEn: 'Hagane', symbol: '鎚', symbolZh: '锤', symbolZhG1: '锤', symbolKo: '망치', symbolEn: 'Hammer', base: 'hagane', anotherID: 'C8', tarotNo: '08'}</v>
+        <f t="shared" si="0"/>
+        <v>'hagane-original': { name: 'ハガネ', nameZh: '破钟', nameZhG1: '破钟', nameKo: '하가네', nameEn: 'Hagane', symbol: '鎚', symbolZh: '锤', symbolZhG1: '锤', symbolKo: '망치', symbolEn: 'Hammer', base: 'hagane', anotherID: 'C8', tarotNo: '08'},</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -15866,25 +16085,56 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
     </row>
-    <row r="23" spans="1:32" ht="12" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="12" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>1103</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>1109</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>'yukihi-original': { name: 'ユキヒ', nameZh: '雪灯', nameZhG1: '雪灯', nameKo: '유키히', nameEn: 'Yukihi', symbol: '傘/簪', symbolZh: '伞/簪', symbolZhG1: '伞/簪', symbolKo: '우산/비녀', symbolEn: 'Umbrella/Hairpin', base: 'yukihi', anotherID: 'C9', tarotNo: '06'},</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -15897,6 +16147,8 @@
       <c r="AB23" s="3"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
     </row>
     <row r="24" spans="1:32" ht="12" customHeight="1">
       <c r="A24" s="1"/>
@@ -31466,10 +31718,10 @@
   <dimension ref="A1:AML62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC34" sqref="AC34"/>
+      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -31685,15 +31937,15 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
       <c r="AO2" s="8" t="str">
-        <f>IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q2,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R2&lt;&gt;"",", subType: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S2&lt;&gt;"",", range: '"&amp;S2&amp;"'","")&amp;IF(U2&lt;&gt;"",", damage: '"&amp;U2&amp;"'","")&amp;IF(W2&lt;&gt;"",", capacity: '"&amp;W2&amp;"'","")&amp;IF(X2&lt;&gt;"",", growth: "&amp;X2&amp;"","")&amp;IF(Y2&lt;&gt;"",", cost: '"&amp;Y2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z2="○",", sealable: true","")&amp;IF(AA2="○",", removable: true","")&amp;IF(AB2="○",", original: true","")&amp;"}")</f>
-        <v>'05-oboro-o-n-a': {megami: 'oboro-original', name: '仙人呼法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'せんじんこほう', rubyEn: '', baseType: 'normal', type: 'action', text: '集中力を1得て、あなたの山札の一番上を伏せ札にする。\n【常時】このカードは捨て札にあるならば、伏せ札の枚数に数える。\n【常時】このカードが捨て札にあるならば、あなたは再構成によるダメージを受けない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A2="", "", "'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q2,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R2&lt;&gt;"",", subType: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S2&lt;&gt;"",", range: '"&amp;S2&amp;"'","")&amp;IF(U2&lt;&gt;"",", damage: '"&amp;U2&amp;"'","")&amp;IF(W2&lt;&gt;"",", capacity: '"&amp;W2&amp;"'","")&amp;IF(X2&lt;&gt;"",", growth: "&amp;X2&amp;"","")&amp;IF(Y2&lt;&gt;"",", cost: '"&amp;Y2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z2="○",", sealable: true","")&amp;IF(AA2="○",", removable: true","")&amp;IF(AB2="○",", original: true","")&amp;"},")</f>
+        <v>'05-oboro-o-n-a': {megami: 'oboro-original', name: '仙人呼法', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'せんじんこほう', rubyEn: '', baseType: 'normal', type: 'action', text: '集中力を1得て、あなたの山札の一番上を伏せ札にする。\n【常時】このカードは捨て札にあるならば、伏せ札の枚数に数える。\n【常時】このカードが捨て札にあるならば、あなたは再構成によるダメージを受けない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP2" s="38" t="str">
-        <f t="shared" ref="AP2:AP34" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
+        <f t="shared" ref="AP2:AP37" si="0">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
         <v xml:space="preserve">    /** 《仙人呼法》 */ export const OBORO_O_N_A: TCardId = '05-oboro-o-n-a';</v>
       </c>
       <c r="AQ2" s="39" t="str">
-        <f t="shared" ref="AQ2:AQ34" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
+        <f t="shared" ref="AQ2:AQ37" si="1">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
         <v xml:space="preserve">    | '05-oboro-o-n-a'</v>
       </c>
     </row>
@@ -31757,8 +32009,8 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="8" t="str">
-        <f>IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q3,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R3&lt;&gt;"",", subType: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S3&lt;&gt;"",", range: '"&amp;S3&amp;"'","")&amp;IF(U3&lt;&gt;"",", damage: '"&amp;U3&amp;"'","")&amp;IF(W3&lt;&gt;"",", capacity: '"&amp;W3&amp;"'","")&amp;IF(X3&lt;&gt;"",", growth: "&amp;X3&amp;"","")&amp;IF(Y3&lt;&gt;"",", cost: '"&amp;Y3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z3="○",", sealable: true","")&amp;IF(AA3="○",", removable: true","")&amp;IF(AB3="○",", original: true","")&amp;"}")</f>
-        <v>, '05-oboro-o-n-b': {megami: 'oboro-original', name: '緋色手裏剣', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ひいろしゅりけん', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-6', damage: '2/1', text: '設置\n【常時】あなたはこのカードを手札にあるかのように伏せ札から使用してもよい。\n【常時】あなたの終了フェイズに両者の伏せ札が合計5枚以上あるならば、このカードを捨て札から伏せ札にしてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A3="", "", "'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q3,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R3&lt;&gt;"",", subType: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S3&lt;&gt;"",", range: '"&amp;S3&amp;"'","")&amp;IF(U3&lt;&gt;"",", damage: '"&amp;U3&amp;"'","")&amp;IF(W3&lt;&gt;"",", capacity: '"&amp;W3&amp;"'","")&amp;IF(X3&lt;&gt;"",", growth: "&amp;X3&amp;"","")&amp;IF(Y3&lt;&gt;"",", cost: '"&amp;Y3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z3="○",", sealable: true","")&amp;IF(AA3="○",", removable: true","")&amp;IF(AB3="○",", original: true","")&amp;"},")</f>
+        <v>'05-oboro-o-n-b': {megami: 'oboro-original', name: '緋色手裏剣', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ひいろしゅりけん', rubyEn: '', baseType: 'normal', type: 'attack', range: '3-6', damage: '2/1', text: '設置\n【常時】あなたはこのカードを手札にあるかのように伏せ札から使用してもよい。\n【常時】あなたの終了フェイズに両者の伏せ札が合計5枚以上あるならば、このカードを捨て札から伏せ札にしてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP3" s="38" t="str">
         <f>IF($A3&lt;&gt;"", "    /** 《"&amp;$E3&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A3, 3, 1)="-", RIGHT($A3,LEN($A3)-3), $A3)), "-", "_")&amp;": TCardId = '"&amp;$A3&amp;"';", "")</f>
@@ -31829,8 +32081,8 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="8" t="str">
-        <f>IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q4,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R4&lt;&gt;"",", subType: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S4&lt;&gt;"",", range: '"&amp;S4&amp;"'","")&amp;IF(U4&lt;&gt;"",", damage: '"&amp;U4&amp;"'","")&amp;IF(W4&lt;&gt;"",", capacity: '"&amp;W4&amp;"'","")&amp;IF(X4&lt;&gt;"",", growth: "&amp;X4&amp;"","")&amp;IF(Y4&lt;&gt;"",", cost: '"&amp;Y4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z4="○",", sealable: true","")&amp;IF(AA4="○",", removable: true","")&amp;IF(AB4="○",", original: true","")&amp;"}")</f>
-        <v>, '05-oboro-o-s-a': {megami: 'oboro-original', name: '朧霞', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'おぼろがすみ', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '【使用済】各ターンにあなたが初めて伏せ札から《攻撃》でないカードを使用した時、その解決後に基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A4="", "", "'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q4,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R4&lt;&gt;"",", subType: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S4&lt;&gt;"",", range: '"&amp;S4&amp;"'","")&amp;IF(U4&lt;&gt;"",", damage: '"&amp;U4&amp;"'","")&amp;IF(W4&lt;&gt;"",", capacity: '"&amp;W4&amp;"'","")&amp;IF(X4&lt;&gt;"",", growth: "&amp;X4&amp;"","")&amp;IF(Y4&lt;&gt;"",", cost: '"&amp;Y4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z4="○",", sealable: true","")&amp;IF(AA4="○",", removable: true","")&amp;IF(AB4="○",", original: true","")&amp;"},")</f>
+        <v>'05-oboro-o-s-a': {megami: 'oboro-original', name: '朧霞', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'おぼろがすみ', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '【使用済】各ターンにあなたが初めて伏せ札から《攻撃》でないカードを使用した時、その解決後に基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP4" s="38" t="str">
         <f t="shared" si="0"/>
@@ -31901,8 +32153,8 @@
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="8" t="str">
-        <f>IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q5,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R5&lt;&gt;"",", subType: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S5&lt;&gt;"",", range: '"&amp;S5&amp;"'","")&amp;IF(U5&lt;&gt;"",", damage: '"&amp;U5&amp;"'","")&amp;IF(W5&lt;&gt;"",", capacity: '"&amp;W5&amp;"'","")&amp;IF(X5&lt;&gt;"",", growth: "&amp;X5&amp;"","")&amp;IF(Y5&lt;&gt;"",", cost: '"&amp;Y5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z5="○",", sealable: true","")&amp;IF(AA5="○",", removable: true","")&amp;IF(AB5="○",", original: true","")&amp;"}")</f>
-        <v>, '05-oboro-o-s-b': {megami: 'oboro-original', name: '朧霞・血桜開花', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'おぼろがすみ・ちざくらかいか', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '【使用済】各ターンにあなたが初めて伏せ札から《攻撃》でないカードを使用した時、その解決後に基本動作を1回行ってもよい。\n【使用済】あなたが伏せ札から使用した《攻撃》カードによる《攻撃》は+0/+1となる。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A5="", "", "'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q5,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R5&lt;&gt;"",", subType: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S5&lt;&gt;"",", range: '"&amp;S5&amp;"'","")&amp;IF(U5&lt;&gt;"",", damage: '"&amp;U5&amp;"'","")&amp;IF(W5&lt;&gt;"",", capacity: '"&amp;W5&amp;"'","")&amp;IF(X5&lt;&gt;"",", growth: "&amp;X5&amp;"","")&amp;IF(Y5&lt;&gt;"",", cost: '"&amp;Y5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z5="○",", sealable: true","")&amp;IF(AA5="○",", removable: true","")&amp;IF(AB5="○",", original: true","")&amp;"},")</f>
+        <v>'05-oboro-o-s-b': {megami: 'oboro-original', name: '朧霞・血桜開花', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'おぼろがすみ・ちざくらかいか', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '【使用済】各ターンにあなたが初めて伏せ札から《攻撃》でないカードを使用した時、その解決後に基本動作を1回行ってもよい。\n【使用済】あなたが伏せ札から使用した《攻撃》カードによる《攻撃》は+0/+1となる。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP5" s="38" t="str">
         <f t="shared" si="0"/>
@@ -31973,8 +32225,8 @@
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="8" t="str">
-        <f>IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q6,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R6&lt;&gt;"",", subType: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S6&lt;&gt;"",", range: '"&amp;S6&amp;"'","")&amp;IF(U6&lt;&gt;"",", damage: '"&amp;U6&amp;"'","")&amp;IF(W6&lt;&gt;"",", capacity: '"&amp;W6&amp;"'","")&amp;IF(X6&lt;&gt;"",", growth: "&amp;X6&amp;"","")&amp;IF(Y6&lt;&gt;"",", cost: '"&amp;Y6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z6="○",", sealable: true","")&amp;IF(AA6="○",", removable: true","")&amp;IF(AB6="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-n-a': {megami: 'chikage-original', name: '歪の目', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いびつのめ', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '相手の手札にある毒カード全てを見て、その中から1枚選び、あなたの毒袋に戻してもよい。そうした場合、対応した《攻撃》を-2/-1し、このカードを手札に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A6="", "", "'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q6,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R6&lt;&gt;"",", subType: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S6&lt;&gt;"",", range: '"&amp;S6&amp;"'","")&amp;IF(U6&lt;&gt;"",", damage: '"&amp;U6&amp;"'","")&amp;IF(W6&lt;&gt;"",", capacity: '"&amp;W6&amp;"'","")&amp;IF(X6&lt;&gt;"",", growth: "&amp;X6&amp;"","")&amp;IF(Y6&lt;&gt;"",", cost: '"&amp;Y6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z6="○",", sealable: true","")&amp;IF(AA6="○",", removable: true","")&amp;IF(AB6="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-n-a': {megami: 'chikage-original', name: '歪の目', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いびつのめ', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '相手の手札にある毒カード全てを見て、その中から1枚選び、あなたの毒袋に戻してもよい。そうした場合、対応した《攻撃》を-2/-1し、このカードを手札に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP6" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32049,8 +32301,8 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="8" t="str">
-        <f>IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q7,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R7&lt;&gt;"",", subType: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S7&lt;&gt;"",", range: '"&amp;S7&amp;"'","")&amp;IF(U7&lt;&gt;"",", damage: '"&amp;U7&amp;"'","")&amp;IF(W7&lt;&gt;"",", capacity: '"&amp;W7&amp;"'","")&amp;IF(X7&lt;&gt;"",", growth: "&amp;X7&amp;"","")&amp;IF(Y7&lt;&gt;"",", cost: '"&amp;Y7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z7="○",", sealable: true","")&amp;IF(AA7="○",", removable: true","")&amp;IF(AB7="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-n-b': {megami: 'chikage-original', name: '歪の刃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いびつのやいば', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '0-10', damage: '1/2', text: '【攻撃後】相手の手札にある毒カード全てを見て、その中から1枚選び、あなたの毒袋に戻してもよい。そうした場合、対応した《攻撃》を-2/-1し、このカードを手札に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A7="", "", "'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q7,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R7&lt;&gt;"",", subType: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S7&lt;&gt;"",", range: '"&amp;S7&amp;"'","")&amp;IF(U7&lt;&gt;"",", damage: '"&amp;U7&amp;"'","")&amp;IF(W7&lt;&gt;"",", capacity: '"&amp;W7&amp;"'","")&amp;IF(X7&lt;&gt;"",", growth: "&amp;X7&amp;"","")&amp;IF(Y7&lt;&gt;"",", cost: '"&amp;Y7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z7="○",", sealable: true","")&amp;IF(AA7="○",", removable: true","")&amp;IF(AB7="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-n-b': {megami: 'chikage-original', name: '歪の刃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いびつのやいば', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '0-10', damage: '1/2', text: '【攻撃後】相手の手札にある毒カード全てを見て、その中から1枚選び、あなたの毒袋に戻してもよい。そうした場合、対応した《攻撃》を-2/-1し、このカードを手札に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP7" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32121,8 +32373,8 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="8" t="str">
-        <f>IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q8,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R8&lt;&gt;"",", subType: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S8&lt;&gt;"",", range: '"&amp;S8&amp;"'","")&amp;IF(U8&lt;&gt;"",", damage: '"&amp;U8&amp;"'","")&amp;IF(W8&lt;&gt;"",", capacity: '"&amp;W8&amp;"'","")&amp;IF(X8&lt;&gt;"",", growth: "&amp;X8&amp;"","")&amp;IF(Y8&lt;&gt;"",", cost: '"&amp;Y8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z8="○",", sealable: true","")&amp;IF(AA8="○",", removable: true","")&amp;IF(AB8="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-n-y': {megami: 'chikage-original', name: '結び番傘', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'むすびばんがさ', rubyEn: '', baseType: 'normal', type: 'attack', range: '4', damage: '2/2', text: '不可避\n【常時】相手の手札が2枚以上あるならば、この《攻撃》は距離拡大（近2）と距離拡大（遠2）を得る。\n（他に何もなければ、適正距離は2-6となる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A8="", "", "'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q8,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R8&lt;&gt;"",", subType: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S8&lt;&gt;"",", range: '"&amp;S8&amp;"'","")&amp;IF(U8&lt;&gt;"",", damage: '"&amp;U8&amp;"'","")&amp;IF(W8&lt;&gt;"",", capacity: '"&amp;W8&amp;"'","")&amp;IF(X8&lt;&gt;"",", growth: "&amp;X8&amp;"","")&amp;IF(Y8&lt;&gt;"",", cost: '"&amp;Y8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z8="○",", sealable: true","")&amp;IF(AA8="○",", removable: true","")&amp;IF(AB8="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-n-y': {megami: 'chikage-original', name: '結び番傘', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'むすびばんがさ', rubyEn: '', baseType: 'normal', type: 'attack', range: '4', damage: '2/2', text: '不可避\n【常時】相手の手札が2枚以上あるならば、この《攻撃》は距離拡大（近2）と距離拡大（遠2）を得る。\n（他に何もなければ、適正距離は2-6となる）', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP8" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32193,8 +32445,8 @@
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="8" t="str">
-        <f>IF(A9="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q9,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R9&lt;&gt;"",", subType: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S9&lt;&gt;"",", range: '"&amp;S9&amp;"'","")&amp;IF(U9&lt;&gt;"",", damage: '"&amp;U9&amp;"'","")&amp;IF(W9&lt;&gt;"",", capacity: '"&amp;W9&amp;"'","")&amp;IF(X9&lt;&gt;"",", growth: "&amp;X9&amp;"","")&amp;IF(Y9&lt;&gt;"",", cost: '"&amp;Y9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z9="○",", sealable: true","")&amp;IF(AA9="○",", removable: true","")&amp;IF(AB9="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-s-a': {megami: 'chikage-original', name: '不朽の絆毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふきゅうのきずなどく', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '毒袋から「雪灯毒」を1枚選び、相手の山札の一番上に置く。\n【使用済】あなたの開始フェイズの開始時にこのカードを未使用に戻してもよい。そうした場合、攻撃『適正距離0-2、X/X、【常時】Xは相手の手札にある毒カードの枚数に等しい』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A9="", "", "'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q9,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R9&lt;&gt;"",", subType: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S9&lt;&gt;"",", range: '"&amp;S9&amp;"'","")&amp;IF(U9&lt;&gt;"",", damage: '"&amp;U9&amp;"'","")&amp;IF(W9&lt;&gt;"",", capacity: '"&amp;W9&amp;"'","")&amp;IF(X9&lt;&gt;"",", growth: "&amp;X9&amp;"","")&amp;IF(Y9&lt;&gt;"",", cost: '"&amp;Y9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z9="○",", sealable: true","")&amp;IF(AA9="○",", removable: true","")&amp;IF(AB9="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-s-a': {megami: 'chikage-original', name: '不朽の絆毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふきゅうのきずなどく', rubyEn: '', baseType: 'special', type: 'action', cost: '2', text: '毒袋から「雪灯毒」を1枚選び、相手の山札の一番上に置く。\n【使用済】あなたの開始フェイズの開始時にこのカードを未使用に戻してもよい。そうした場合、攻撃『適正距離0-2、X/X、【常時】Xは相手の手札にある毒カードの枚数に等しい』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP9" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32261,8 +32513,8 @@
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="8" t="str">
-        <f>IF(A10="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q10,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R10&lt;&gt;"",", subType: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S10&lt;&gt;"",", range: '"&amp;S10&amp;"'","")&amp;IF(U10&lt;&gt;"",", damage: '"&amp;U10&amp;"'","")&amp;IF(W10&lt;&gt;"",", capacity: '"&amp;W10&amp;"'","")&amp;IF(X10&lt;&gt;"",", growth: "&amp;X10&amp;"","")&amp;IF(Y10&lt;&gt;"",", cost: '"&amp;Y10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z10="○",", sealable: true","")&amp;IF(AA10="○",", removable: true","")&amp;IF(AB10="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-p-a': {megami: 'chikage-original', name: '滅灯毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ほろびどく', rubyEn: '', baseType: 'poison', type: 'action', text: '終端\nあなたのオーラに2ダメージを与える。\n【常時】このカードは捨て札から移動しない。\n【常時】このカードが捨て札にあるならば、あなたの毒カードに書かれた数字と桜花結晶の数は2倍になる。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A10="", "", "'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q10,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R10&lt;&gt;"",", subType: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S10&lt;&gt;"",", range: '"&amp;S10&amp;"'","")&amp;IF(U10&lt;&gt;"",", damage: '"&amp;U10&amp;"'","")&amp;IF(W10&lt;&gt;"",", capacity: '"&amp;W10&amp;"'","")&amp;IF(X10&lt;&gt;"",", growth: "&amp;X10&amp;"","")&amp;IF(Y10&lt;&gt;"",", cost: '"&amp;Y10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z10="○",", sealable: true","")&amp;IF(AA10="○",", removable: true","")&amp;IF(AB10="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-p-a': {megami: 'chikage-original', name: '滅灯毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ほろびどく', rubyEn: '', baseType: 'poison', type: 'action', text: '終端\nあなたのオーラに2ダメージを与える。\n【常時】このカードは捨て札から移動しない。\n【常時】このカードが捨て札にあるならば、あなたの毒カードに書かれた数字と桜花結晶の数は2倍になる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP10" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32331,8 +32583,8 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="8" t="str">
-        <f>IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q11,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R11&lt;&gt;"",", subType: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S11&lt;&gt;"",", range: '"&amp;S11&amp;"'","")&amp;IF(U11&lt;&gt;"",", damage: '"&amp;U11&amp;"'","")&amp;IF(W11&lt;&gt;"",", capacity: '"&amp;W11&amp;"'","")&amp;IF(X11&lt;&gt;"",", growth: "&amp;X11&amp;"","")&amp;IF(Y11&lt;&gt;"",", cost: '"&amp;Y11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z11="○",", sealable: true","")&amp;IF(AA11="○",", removable: true","")&amp;IF(AB11="○",", original: true","")&amp;"}")</f>
-        <v>, '09-chikage-o-p-b': {megami: 'chikage-original', name: '雪灯毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆきひどく', rubyEn: '', baseType: 'poison', type: 'action', text: '【常時】このターン中にあなたが通常札を使用しているならば、このカードは使用できない。\n【常時】このカードが毒袋に戻るならば、その直前に相手は基本動作を1回行ってもよい。\nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A11="", "", "'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q11,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R11&lt;&gt;"",", subType: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S11&lt;&gt;"",", range: '"&amp;S11&amp;"'","")&amp;IF(U11&lt;&gt;"",", damage: '"&amp;U11&amp;"'","")&amp;IF(W11&lt;&gt;"",", capacity: '"&amp;W11&amp;"'","")&amp;IF(X11&lt;&gt;"",", growth: "&amp;X11&amp;"","")&amp;IF(Y11&lt;&gt;"",", cost: '"&amp;Y11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z11="○",", sealable: true","")&amp;IF(AA11="○",", removable: true","")&amp;IF(AB11="○",", original: true","")&amp;"},")</f>
+        <v>'09-chikage-o-p-b': {megami: 'chikage-original', name: '雪灯毒', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆきひどく', rubyEn: '', baseType: 'poison', type: 'action', text: '【常時】このターン中にあなたが通常札を使用しているならば、このカードは使用できない。\n【常時】このカードが毒袋に戻るならば、その直前に相手は基本動作を1回行ってもよい。\nこのカードを相手の毒袋に戻す。その後、このフェイズを終了する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP11" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32405,8 +32657,8 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="8" t="str">
-        <f>IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q12,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R12&lt;&gt;"",", subType: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S12&lt;&gt;"",", range: '"&amp;S12&amp;"'","")&amp;IF(U12&lt;&gt;"",", damage: '"&amp;U12&amp;"'","")&amp;IF(W12&lt;&gt;"",", capacity: '"&amp;W12&amp;"'","")&amp;IF(X12&lt;&gt;"",", growth: "&amp;X12&amp;"","")&amp;IF(Y12&lt;&gt;"",", cost: '"&amp;Y12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z12="○",", sealable: true","")&amp;IF(AA12="○",", removable: true","")&amp;IF(AB12="○",", original: true","")&amp;"}")</f>
-        <v>, '12-raira-o-n-a': {megami: 'raira-original', name: '乱動', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'らんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-8', damage: '1/1', text: '終端\n【攻撃後】手札の《全力》カード1枚を使用してもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A12="", "", "'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q12,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R12&lt;&gt;"",", subType: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S12&lt;&gt;"",", range: '"&amp;S12&amp;"'","")&amp;IF(U12&lt;&gt;"",", damage: '"&amp;U12&amp;"'","")&amp;IF(W12&lt;&gt;"",", capacity: '"&amp;W12&amp;"'","")&amp;IF(X12&lt;&gt;"",", growth: "&amp;X12&amp;"","")&amp;IF(Y12&lt;&gt;"",", cost: '"&amp;Y12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z12="○",", sealable: true","")&amp;IF(AA12="○",", removable: true","")&amp;IF(AB12="○",", original: true","")&amp;"},")</f>
+        <v>'12-raira-o-n-a': {megami: 'raira-original', name: '乱動', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'らんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '1-8', damage: '1/1', text: '終端\n【攻撃後】手札の《全力》カード1枚を使用してもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP12" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32490,8 +32742,8 @@
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="8" t="str">
-        <f>IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q13,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R13&lt;&gt;"",", subType: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S13&lt;&gt;"",", range: '"&amp;S13&amp;"'","")&amp;IF(U13&lt;&gt;"",", damage: '"&amp;U13&amp;"'","")&amp;IF(W13&lt;&gt;"",", capacity: '"&amp;W13&amp;"'","")&amp;IF(X13&lt;&gt;"",", growth: "&amp;X13&amp;"","")&amp;IF(Y13&lt;&gt;"",", cost: '"&amp;Y13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z13="○",", sealable: true","")&amp;IF(AA13="○",", removable: true","")&amp;IF(AB13="○",", original: true","")&amp;"}")</f>
-        <v>, '12-raira-o-n-b': {megami: 'raira-original', name: '大乱動', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいらんどう', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-8', damage: '2/1', text: '対応不可\n【攻撃後】手札のカード1枚を使用してもよい。（全力でもよい）\n', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A13="", "", "'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q13,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R13&lt;&gt;"",", subType: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S13&lt;&gt;"",", range: '"&amp;S13&amp;"'","")&amp;IF(U13&lt;&gt;"",", damage: '"&amp;U13&amp;"'","")&amp;IF(W13&lt;&gt;"",", capacity: '"&amp;W13&amp;"'","")&amp;IF(X13&lt;&gt;"",", growth: "&amp;X13&amp;"","")&amp;IF(Y13&lt;&gt;"",", cost: '"&amp;Y13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z13="○",", sealable: true","")&amp;IF(AA13="○",", removable: true","")&amp;IF(AB13="○",", original: true","")&amp;"},")</f>
+        <v>'12-raira-o-n-b': {megami: 'raira-original', name: '大乱動', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいらんどう', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-8', damage: '2/1', text: '対応不可\n【攻撃後】手札のカード1枚を使用してもよい。（全力でもよい）\n', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP13" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32579,8 +32831,8 @@
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="8" t="str">
-        <f>IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q14,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R14&lt;&gt;"",", subType: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S14&lt;&gt;"",", range: '"&amp;S14&amp;"'","")&amp;IF(U14&lt;&gt;"",", damage: '"&amp;U14&amp;"'","")&amp;IF(W14&lt;&gt;"",", capacity: '"&amp;W14&amp;"'","")&amp;IF(X14&lt;&gt;"",", growth: "&amp;X14&amp;"","")&amp;IF(Y14&lt;&gt;"",", cost: '"&amp;Y14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z14="○",", sealable: true","")&amp;IF(AA14="○",", removable: true","")&amp;IF(AB14="○",", original: true","")&amp;"}")</f>
-        <v>, '12-raira-o-n-y': {megami: 'raira-original', name: '原初暴風', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'げんしょぼうふう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '2/1', text: '【攻撃後】風神ゲージを1上げる。その後、嵐の力を1回使用してもよい。', textZh: '【攻击后】风神槽的值增加1。然后，你可以使用一次风暴之力。', textZhG1: '【攻击后】风神槽的值增加1。然后你可以使用1次岚之力。', textKo: '【공격후】풍신 게이지를 1올린다. 그 후에 태풍의 힘을 1번 사용해도 좋다.', textEn: 'After Attack: Increase your Wind Gauge by 1, then you may harness the storm once.'}</v>
+        <f>IF(A14="", "", "'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q14,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R14&lt;&gt;"",", subType: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S14&lt;&gt;"",", range: '"&amp;S14&amp;"'","")&amp;IF(U14&lt;&gt;"",", damage: '"&amp;U14&amp;"'","")&amp;IF(W14&lt;&gt;"",", capacity: '"&amp;W14&amp;"'","")&amp;IF(X14&lt;&gt;"",", growth: "&amp;X14&amp;"","")&amp;IF(Y14&lt;&gt;"",", cost: '"&amp;Y14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z14="○",", sealable: true","")&amp;IF(AA14="○",", removable: true","")&amp;IF(AB14="○",", original: true","")&amp;"},")</f>
+        <v>'12-raira-o-n-y': {megami: 'raira-original', name: '原初暴風', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'げんしょぼうふう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-4', damage: '2/1', text: '【攻撃後】風神ゲージを1上げる。その後、嵐の力を1回使用してもよい。', textZh: '【攻击后】风神槽的值增加1。然后，你可以使用一次风暴之力。', textZhG1: '【攻击后】风神槽的值增加1。然后你可以使用1次岚之力。', textKo: '【공격후】풍신 게이지를 1올린다. 그 후에 태풍의 힘을 1번 사용해도 좋다.', textEn: 'After Attack: Increase your Wind Gauge by 1, then you may harness the storm once.'},</v>
       </c>
       <c r="AP14" s="38" t="str">
         <f t="shared" si="0"/>
@@ -32660,8 +32912,8 @@
       <c r="AM15" s="44"/>
       <c r="AN15" s="44"/>
       <c r="AO15" s="8" t="str">
-        <f>IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q15,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R15&lt;&gt;"",", subType: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S15&lt;&gt;"",", range: '"&amp;S15&amp;"'","")&amp;IF(U15&lt;&gt;"",", damage: '"&amp;U15&amp;"'","")&amp;IF(W15&lt;&gt;"",", capacity: '"&amp;W15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", cost: '"&amp;Y15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z15="○",", sealable: true","")&amp;IF(AA15="○",", removable: true","")&amp;IF(AB15="○",", original: true","")&amp;"}")</f>
-        <v>, '12-raira-storm-a': {megami: 'raira-original', name: '【原初なる嵐の力】', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'storm', text: '【風1】間合⇔ダスト：1\n【風2】あなたは集中力を1得て、相手は集中力を1失う。\n【風3】カードを1枚引く。\n----\n【雷1】このターンにあなたが次に行う《攻撃》は+1/+0となる。\n【雷2】このターンにあなたが次に行うオーラへのダメージが「-」でない《攻撃》は+0/+1となる。\n【雷3】攻撃『適正距離0-4、2/2』を行う。', textZh: '&lt;风1&gt;距↔1↔虚\n&lt;风2&gt;你获得1点集中力，对手失去1点集中力。\n&lt;风3&gt;抓1张牌。\n\n&lt;雷1&gt;本回合你的下次《攻击》得+1/+0。\n&lt;雷2&gt;本回合你的下次对装伤害不为「-」的《攻击》得+0/+1。\n&lt;雷3&gt;进行一次“攻击距离0-4、伤害2/2”的攻击。', textZhG1: '风1：距（1）⇔虚\n风2：你获得1点集中力，对手失去1点集中力。\n风3：抽1张牌。\n雷1：本回合内你进行的下一次《攻击》得+1/+0。\n雷2：本回合内你进行的下一次对装的伤害不是“-”的攻击得+0/+1。\n雷3：进行一次“攻击距离0-4 伤害2/2”的攻击。', textKo: '【풍1】간격⇔더스트：1\n【풍2】당신은 집중력을 1얻고 상대는 집중력을 1잃는다.\n【풍3】카드를 1장 뽑는다.\n----\n【뇌1】이 턴에 당신이 다음에 하는 《공격》은 +1/+0된다.\n【뇌2】이 턴에 당신이 다음에 하는 오라 데미지가 「-」이 아닌 《공격》은 +0/+1된다.\n【뇌3】공격 『적정 거리0-4, 2/2』를 한다.', textEn: '(When you harness the storm, choose an ability from this list. Decrease its corresponding Gauge by the appropriate amount to get its effect.)\n\nWind 1: Shadow (1)⇔ Distance\nWind 2: Gain 1 Vigor. Your opponent loses 1 Vigor.\nWind 3: Draw a card.\n\nThunder 1: The next attack you make this turn gains +1/+0.\nThunder 2: The next attack you make this turn that doesn\'t have "-" Damage to Aura gains +0/+1.\nThunder 3: You attack with "Range: 0-4, Damage: 2/2".'}</v>
+        <f>IF(A15="", "", "'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q15,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R15&lt;&gt;"",", subType: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S15&lt;&gt;"",", range: '"&amp;S15&amp;"'","")&amp;IF(U15&lt;&gt;"",", damage: '"&amp;U15&amp;"'","")&amp;IF(W15&lt;&gt;"",", capacity: '"&amp;W15&amp;"'","")&amp;IF(X15&lt;&gt;"",", growth: "&amp;X15&amp;"","")&amp;IF(Y15&lt;&gt;"",", cost: '"&amp;Y15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z15="○",", sealable: true","")&amp;IF(AA15="○",", removable: true","")&amp;IF(AB15="○",", original: true","")&amp;"},")</f>
+        <v>'12-raira-storm-a': {megami: 'raira-original', name: '【原初なる嵐の力】', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'storm', text: '【風1】間合⇔ダスト：1\n【風2】あなたは集中力を1得て、相手は集中力を1失う。\n【風3】カードを1枚引く。\n----\n【雷1】このターンにあなたが次に行う《攻撃》は+1/+0となる。\n【雷2】このターンにあなたが次に行うオーラへのダメージが「-」でない《攻撃》は+0/+1となる。\n【雷3】攻撃『適正距離0-4、2/2』を行う。', textZh: '&lt;风1&gt;距↔1↔虚\n&lt;风2&gt;你获得1点集中力，对手失去1点集中力。\n&lt;风3&gt;抓1张牌。\n\n&lt;雷1&gt;本回合你的下次《攻击》得+1/+0。\n&lt;雷2&gt;本回合你的下次对装伤害不为「-」的《攻击》得+0/+1。\n&lt;雷3&gt;进行一次“攻击距离0-4、伤害2/2”的攻击。', textZhG1: '风1：距（1）⇔虚\n风2：你获得1点集中力，对手失去1点集中力。\n风3：抽1张牌。\n雷1：本回合内你进行的下一次《攻击》得+1/+0。\n雷2：本回合内你进行的下一次对装的伤害不是“-”的攻击得+0/+1。\n雷3：进行一次“攻击距离0-4 伤害2/2”的攻击。', textKo: '【풍1】간격⇔더스트：1\n【풍2】당신은 집중력을 1얻고 상대는 집중력을 1잃는다.\n【풍3】카드를 1장 뽑는다.\n----\n【뇌1】이 턴에 당신이 다음에 하는 《공격》은 +1/+0된다.\n【뇌2】이 턴에 당신이 다음에 하는 오라 데미지가 「-」이 아닌 《공격》은 +0/+1된다.\n【뇌3】공격 『적정 거리0-4, 2/2』를 한다.', textEn: '(When you harness the storm, choose an ability from this list. Decrease its corresponding Gauge by the appropriate amount to get its effect.)\n\nWind 1: Shadow (1)⇔ Distance\nWind 2: Gain 1 Vigor. Your opponent loses 1 Vigor.\nWind 3: Draw a card.\n\nThunder 1: The next attack you make this turn gains +1/+0.\nThunder 2: The next attack you make this turn that doesn\'t have "-" Damage to Aura gains +0/+1.\nThunder 3: You attack with "Range: 0-4, Damage: 2/2".'},</v>
       </c>
       <c r="AP15" s="38" t="str">
         <f t="shared" si="0"/>
@@ -33717,8 +33969,8 @@
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="8" t="str">
-        <f>IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q16,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R16&lt;&gt;"",", subType: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S16&lt;&gt;"",", range: '"&amp;S16&amp;"'","")&amp;IF(U16&lt;&gt;"",", damage: '"&amp;U16&amp;"'","")&amp;IF(W16&lt;&gt;"",", capacity: '"&amp;W16&amp;"'","")&amp;IF(X16&lt;&gt;"",", growth: "&amp;X16&amp;"","")&amp;IF(Y16&lt;&gt;"",", cost: '"&amp;Y16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z16="○",", sealable: true","")&amp;IF(AA16="○",", removable: true","")&amp;IF(AB16="○",", original: true","")&amp;"}")</f>
-        <v>, '12-raira-o-s-a': {megami: 'raira-original', name: '天理天道覆載圏', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'てんりてんどうふうさいけん', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '5', cost: '1', text: '【展開中】あなたがカードを使用するたびに風神ゲージか雷神ゲージを1上げてもよい。\n【破棄時】嵐の力を好きなだけ使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A16="", "", "'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q16,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R16&lt;&gt;"",", subType: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S16&lt;&gt;"",", range: '"&amp;S16&amp;"'","")&amp;IF(U16&lt;&gt;"",", damage: '"&amp;U16&amp;"'","")&amp;IF(W16&lt;&gt;"",", capacity: '"&amp;W16&amp;"'","")&amp;IF(X16&lt;&gt;"",", growth: "&amp;X16&amp;"","")&amp;IF(Y16&lt;&gt;"",", cost: '"&amp;Y16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z16="○",", sealable: true","")&amp;IF(AA16="○",", removable: true","")&amp;IF(AB16="○",", original: true","")&amp;"},")</f>
+        <v>'12-raira-o-s-a': {megami: 'raira-original', name: '天理天道覆載圏', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'てんりてんどうふうさいけん', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '5', cost: '1', text: '【展開中】あなたがカードを使用するたびに風神ゲージか雷神ゲージを1上げてもよい。\n【破棄時】嵐の力を好きなだけ使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP16" s="38" t="str">
         <f t="shared" si="0"/>
@@ -33791,8 +34043,8 @@
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="8" t="str">
-        <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q17,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R17&lt;&gt;"",", subType: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S17&lt;&gt;"",", range: '"&amp;S17&amp;"'","")&amp;IF(U17&lt;&gt;"",", damage: '"&amp;U17&amp;"'","")&amp;IF(W17&lt;&gt;"",", capacity: '"&amp;W17&amp;"'","")&amp;IF(X17&lt;&gt;"",", growth: "&amp;X17&amp;"","")&amp;IF(Y17&lt;&gt;"",", cost: '"&amp;Y17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z17="○",", sealable: true","")&amp;IF(AA17="○",", removable: true","")&amp;IF(AB17="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-n-a': {megami: 'megumi-original', name: '宿木', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やどりぎ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '0', growth: 2, text: '生育2\n【展開時】捨て札または伏せ札から《全力》でない《付与》カード1枚を使用してもよい。\n【展開中】このカードは他の通常札の付与札すべての隙でない【展開中】効果を持つ。（相手の付与札も含む）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A17="", "", "'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q17,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R17&lt;&gt;"",", subType: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S17&lt;&gt;"",", range: '"&amp;S17&amp;"'","")&amp;IF(U17&lt;&gt;"",", damage: '"&amp;U17&amp;"'","")&amp;IF(W17&lt;&gt;"",", capacity: '"&amp;W17&amp;"'","")&amp;IF(X17&lt;&gt;"",", growth: "&amp;X17&amp;"","")&amp;IF(Y17&lt;&gt;"",", cost: '"&amp;Y17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z17="○",", sealable: true","")&amp;IF(AA17="○",", removable: true","")&amp;IF(AB17="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-n-a': {megami: 'megumi-original', name: '宿木', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'やどりぎ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '0', growth: 2, text: '生育2\n【展開時】捨て札または伏せ札から《全力》でない《付与》カード1枚を使用してもよい。\n【展開中】このカードは他の通常札の付与札すべての隙でない【展開中】効果を持つ。（相手の付与札も含む）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP17" s="38" t="str">
         <f t="shared" si="0"/>
@@ -33861,8 +34113,8 @@
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="8" t="str">
-        <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q18,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R18&lt;&gt;"",", subType: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S18&lt;&gt;"",", range: '"&amp;S18&amp;"'","")&amp;IF(U18&lt;&gt;"",", damage: '"&amp;U18&amp;"'","")&amp;IF(W18&lt;&gt;"",", capacity: '"&amp;W18&amp;"'","")&amp;IF(X18&lt;&gt;"",", growth: "&amp;X18&amp;"","")&amp;IF(Y18&lt;&gt;"",", cost: '"&amp;Y18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z18="○",", sealable: true","")&amp;IF(AA18="○",", removable: true","")&amp;IF(AB18="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-n-b': {megami: 'megumi-original', name: '片喰', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かたばみ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '【展開中/破棄時】あなたの終了フェイズと破棄時に攻撃『適正距離4-10、1/1』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A18="", "", "'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q18,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R18&lt;&gt;"",", subType: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S18&lt;&gt;"",", range: '"&amp;S18&amp;"'","")&amp;IF(U18&lt;&gt;"",", damage: '"&amp;U18&amp;"'","")&amp;IF(W18&lt;&gt;"",", capacity: '"&amp;W18&amp;"'","")&amp;IF(X18&lt;&gt;"",", growth: "&amp;X18&amp;"","")&amp;IF(Y18&lt;&gt;"",", cost: '"&amp;Y18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z18="○",", sealable: true","")&amp;IF(AA18="○",", removable: true","")&amp;IF(AB18="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-n-b': {megami: 'megumi-original', name: '片喰', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かたばみ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '【展開中/破棄時】あなたの終了フェイズと破棄時に攻撃『適正距離4-10、1/1』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP18" s="38" t="str">
         <f>IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
@@ -33935,8 +34187,8 @@
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="8" t="str">
-        <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q19,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R19&lt;&gt;"",", subType: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S19&lt;&gt;"",", range: '"&amp;S19&amp;"'","")&amp;IF(U19&lt;&gt;"",", damage: '"&amp;U19&amp;"'","")&amp;IF(W19&lt;&gt;"",", capacity: '"&amp;W19&amp;"'","")&amp;IF(X19&lt;&gt;"",", growth: "&amp;X19&amp;"","")&amp;IF(Y19&lt;&gt;"",", cost: '"&amp;Y19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z19="○",", sealable: true","")&amp;IF(AA19="○",", removable: true","")&amp;IF(AB19="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-s-a': {megami: 'megumi-original', name: 'その先の青空', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そのさきのあおぞら', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【常時】このカードはこの効果でのみ使用できる。あなたが初めて敗北するならば、代わりにこのカードを使用してもよい。そうした場合、このターン中にあなたはダメージを受けない。\n【常時】このカードの上の種結晶をあなたのライフにあるかのように扱う。\n【展開中】あなたの他の付与札から桜花結晶が移動するならば、代わりにこの上に移動する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A19="", "", "'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q19,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R19&lt;&gt;"",", subType: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S19&lt;&gt;"",", range: '"&amp;S19&amp;"'","")&amp;IF(U19&lt;&gt;"",", damage: '"&amp;U19&amp;"'","")&amp;IF(W19&lt;&gt;"",", capacity: '"&amp;W19&amp;"'","")&amp;IF(X19&lt;&gt;"",", growth: "&amp;X19&amp;"","")&amp;IF(Y19&lt;&gt;"",", cost: '"&amp;Y19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z19="○",", sealable: true","")&amp;IF(AA19="○",", removable: true","")&amp;IF(AB19="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-s-a': {megami: 'megumi-original', name: 'その先の青空', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'そのさきのあおぞら', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '2', text: '【常時】このカードはこの効果でのみ使用できる。あなたが初めて敗北するならば、代わりにこのカードを使用してもよい。そうした場合、このターン中にあなたはダメージを受けない。\n【常時】このカードの上の種結晶をあなたのライフにあるかのように扱う。\n【展開中】あなたの他の付与札から桜花結晶が移動するならば、代わりにこの上に移動する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP19" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34011,8 +34263,8 @@
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="8" t="str">
-        <f>IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q20,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R20&lt;&gt;"",", subType: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S20&lt;&gt;"",", range: '"&amp;S20&amp;"'","")&amp;IF(U20&lt;&gt;"",", damage: '"&amp;U20&amp;"'","")&amp;IF(W20&lt;&gt;"",", capacity: '"&amp;W20&amp;"'","")&amp;IF(X20&lt;&gt;"",", growth: "&amp;X20&amp;"","")&amp;IF(Y20&lt;&gt;"",", cost: '"&amp;Y20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z20="○",", sealable: true","")&amp;IF(AA20="○",", removable: true","")&amp;IF(AB20="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-n-e': {megami: 'megumi-original', name: '英雄の一撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいゆうのいちげき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '4-5', damage: '3/2', text: '対応不可', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A20="", "", "'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q20,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R20&lt;&gt;"",", subType: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S20&lt;&gt;"",", range: '"&amp;S20&amp;"'","")&amp;IF(U20&lt;&gt;"",", damage: '"&amp;U20&amp;"'","")&amp;IF(W20&lt;&gt;"",", capacity: '"&amp;W20&amp;"'","")&amp;IF(X20&lt;&gt;"",", growth: "&amp;X20&amp;"","")&amp;IF(Y20&lt;&gt;"",", cost: '"&amp;Y20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z20="○",", sealable: true","")&amp;IF(AA20="○",", removable: true","")&amp;IF(AB20="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-n-e': {megami: 'megumi-original', name: '英雄の一撃', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいゆうのいちげき', rubyEn: '', baseType: 'normal', extra: true, type: 'attack', range: '4-5', damage: '3/2', text: '対応不可', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP20" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34085,8 +34337,8 @@
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="8" t="str">
-        <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q21,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R21&lt;&gt;"",", subType: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S21&lt;&gt;"",", range: '"&amp;S21&amp;"'","")&amp;IF(U21&lt;&gt;"",", damage: '"&amp;U21&amp;"'","")&amp;IF(W21&lt;&gt;"",", capacity: '"&amp;W21&amp;"'","")&amp;IF(X21&lt;&gt;"",", growth: "&amp;X21&amp;"","")&amp;IF(Y21&lt;&gt;"",", cost: '"&amp;Y21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z21="○",", sealable: true","")&amp;IF(AA21="○",", removable: true","")&amp;IF(AB21="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-n-y': {megami: 'megumi-original', name: '勇者の杖', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆうしゃのつえ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '1', growth: 2, text: '生育2\n【展開時】捨て札、伏せ札、切札のいずれかから《全力》でない《付与》カード1枚を使用してもよい。（使用済でもよく、消費は支払う）\n【展開中】このカードは他の付与札すべての隙でない【展開中】効果を持つ。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A21="", "", "'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q21,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R21&lt;&gt;"",", subType: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S21&lt;&gt;"",", range: '"&amp;S21&amp;"'","")&amp;IF(U21&lt;&gt;"",", damage: '"&amp;U21&amp;"'","")&amp;IF(W21&lt;&gt;"",", capacity: '"&amp;W21&amp;"'","")&amp;IF(X21&lt;&gt;"",", growth: "&amp;X21&amp;"","")&amp;IF(Y21&lt;&gt;"",", cost: '"&amp;Y21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z21="○",", sealable: true","")&amp;IF(AA21="○",", removable: true","")&amp;IF(AB21="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-n-y': {megami: 'megumi-original', name: '勇者の杖', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ゆうしゃのつえ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '1', growth: 2, text: '生育2\n【展開時】捨て札、伏せ札、切札のいずれかから《全力》でない《付与》カード1枚を使用してもよい。（使用済でもよく、消費は支払う）\n【展開中】このカードは他の付与札すべての隙でない【展開中】効果を持つ。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP21" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34155,8 +34407,8 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="8" t="str">
-        <f>IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q22,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R22&lt;&gt;"",", subType: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S22&lt;&gt;"",", range: '"&amp;S22&amp;"'","")&amp;IF(U22&lt;&gt;"",", damage: '"&amp;U22&amp;"'","")&amp;IF(W22&lt;&gt;"",", capacity: '"&amp;W22&amp;"'","")&amp;IF(X22&lt;&gt;"",", growth: "&amp;X22&amp;"","")&amp;IF(Y22&lt;&gt;"",", cost: '"&amp;Y22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z22="○",", sealable: true","")&amp;IF(AA22="○",", removable: true","")&amp;IF(AB22="○",", original: true","")&amp;"}")</f>
-        <v>, '19-megumi-o-n-o': {megami: 'megumi-original', name: '魔女の杖', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'まじょのつえ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【展開中/破棄時】あなたの終了フェイズと破棄時に攻撃『適正距離4-10、1/1』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A22="", "", "'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q22,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R22&lt;&gt;"",", subType: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S22&lt;&gt;"",", range: '"&amp;S22&amp;"'","")&amp;IF(U22&lt;&gt;"",", damage: '"&amp;U22&amp;"'","")&amp;IF(W22&lt;&gt;"",", capacity: '"&amp;W22&amp;"'","")&amp;IF(X22&lt;&gt;"",", growth: "&amp;X22&amp;"","")&amp;IF(Y22&lt;&gt;"",", cost: '"&amp;Y22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z22="○",", sealable: true","")&amp;IF(AA22="○",", removable: true","")&amp;IF(AB22="○",", original: true","")&amp;"},")</f>
+        <v>'19-megumi-o-n-o': {megami: 'megumi-original', name: '魔女の杖', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'まじょのつえ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【展開中/破棄時】あなたの終了フェイズと破棄時に攻撃『適正距離4-10、1/1』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP22" s="38" t="str">
         <f>IF($A22&lt;&gt;"", "    /** 《"&amp;$E22&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A22, 3, 1)="-", RIGHT($A22,LEN($A22)-3), $A22)), "-", "_")&amp;": TCardId = '"&amp;$A22&amp;"';", "")</f>
@@ -34227,8 +34479,8 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="8" t="str">
-        <f>IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q23,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R23&lt;&gt;"",", subType: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S23&lt;&gt;"",", range: '"&amp;S23&amp;"'","")&amp;IF(U23&lt;&gt;"",", damage: '"&amp;U23&amp;"'","")&amp;IF(W23&lt;&gt;"",", capacity: '"&amp;W23&amp;"'","")&amp;IF(X23&lt;&gt;"",", growth: "&amp;X23&amp;"","")&amp;IF(Y23&lt;&gt;"",", cost: '"&amp;Y23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z23="○",", sealable: true","")&amp;IF(AA23="○",", removable: true","")&amp;IF(AB23="○",", original: true","")&amp;"}")</f>
-        <v>, '07-shinra-o-n-a': {megami: 'shinra-original', name: '啓発', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'けいはつ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【常時】使用するに際し、相手のオーラやフレアから桜花結晶を納めてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A23="", "", "'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q23,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R23&lt;&gt;"",", subType: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S23&lt;&gt;"",", range: '"&amp;S23&amp;"'","")&amp;IF(U23&lt;&gt;"",", damage: '"&amp;U23&amp;"'","")&amp;IF(W23&lt;&gt;"",", capacity: '"&amp;W23&amp;"'","")&amp;IF(X23&lt;&gt;"",", growth: "&amp;X23&amp;"","")&amp;IF(Y23&lt;&gt;"",", cost: '"&amp;Y23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z23="○",", sealable: true","")&amp;IF(AA23="○",", removable: true","")&amp;IF(AB23="○",", original: true","")&amp;"},")</f>
+        <v>'07-shinra-o-n-a': {megami: 'shinra-original', name: '啓発', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'けいはつ', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【常時】使用するに際し、相手のオーラやフレアから桜花結晶を納めてもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP23" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34308,8 +34560,8 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="8" t="str">
-        <f>IF(A24="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q24,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R24&lt;&gt;"",", subType: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S24&lt;&gt;"",", range: '"&amp;S24&amp;"'","")&amp;IF(U24&lt;&gt;"",", damage: '"&amp;U24&amp;"'","")&amp;IF(W24&lt;&gt;"",", capacity: '"&amp;W24&amp;"'","")&amp;IF(X24&lt;&gt;"",", growth: "&amp;X24&amp;"","")&amp;IF(Y24&lt;&gt;"",", cost: '"&amp;Y24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z24="○",", sealable: true","")&amp;IF(AA24="○",", removable: true","")&amp;IF(AB24="○",", original: true","")&amp;"}")</f>
-        <v>, '07-shinra-o-n-b': {megami: 'shinra-original', name: '啓蒙', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'けいもう', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【常時】使用するに際し、相手のオーラやフレアから桜花結晶を納めてもよい。\n【展開中】相手は山札の再構成を行えない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A24="", "", "'"&amp;A24&amp;"': {megami: '"&amp;B24&amp;"'"&amp;IF(C24&lt;&gt;"",", anotherID: '"&amp;C24&amp;"', replace: '"&amp;D24&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E24,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K24,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G24,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H24,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J24,"'","\'")&amp;"', ruby: '"&amp;F24&amp;"', rubyEn: '"&amp;L24&amp;IF(I24&lt;&gt;"", "', rubyZh: '"&amp;I24, "")&amp;"', baseType: '"&amp;VLOOKUP(M24,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N24="○",", extra: true","")&amp;IF(O24&lt;&gt;"",", extraFrom: '"&amp;O24&amp;"'","")&amp;IF(P24&lt;&gt;"",", exchangableTo: '"&amp;P24&amp;"'","")&amp;IF(Q24&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q24,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R24&lt;&gt;"",", subType: '"&amp;VLOOKUP(R24,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S24&lt;&gt;"",", range: '"&amp;S24&amp;"'","")&amp;IF(U24&lt;&gt;"",", damage: '"&amp;U24&amp;"'","")&amp;IF(W24&lt;&gt;"",", capacity: '"&amp;W24&amp;"'","")&amp;IF(X24&lt;&gt;"",", growth: "&amp;X24&amp;"","")&amp;IF(Y24&lt;&gt;"",", cost: '"&amp;Y24&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC24, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD24&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF24&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF24, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI24, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z24="○",", sealable: true","")&amp;IF(AA24="○",", removable: true","")&amp;IF(AB24="○",", original: true","")&amp;"},")</f>
+        <v>'07-shinra-o-n-b': {megami: 'shinra-original', name: '啓蒙', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'けいもう', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【常時】使用するに際し、相手のオーラやフレアから桜花結晶を納めてもよい。\n【展開中】相手は山札の再構成を行えない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP24" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34387,8 +34639,8 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="8" t="str">
-        <f>IF(A25="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q25,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R25&lt;&gt;"",", subType: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S25&lt;&gt;"",", range: '"&amp;S25&amp;"'","")&amp;IF(U25&lt;&gt;"",", damage: '"&amp;U25&amp;"'","")&amp;IF(W25&lt;&gt;"",", capacity: '"&amp;W25&amp;"'","")&amp;IF(X25&lt;&gt;"",", growth: "&amp;X25&amp;"","")&amp;IF(Y25&lt;&gt;"",", cost: '"&amp;Y25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z25="○",", sealable: true","")&amp;IF(AA25="○",", removable: true","")&amp;IF(AB25="○",", original: true","")&amp;"}")</f>
-        <v>, '07-shinra-o-n-y': {megami: 'shinra-original', name: '福音', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふくいん', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '計略を実行し、同じ計略を準備する。\n[神算] あなたと相手はカードを1枚引く。\n[鬼謀] 相手は手札を1枚捨て札にする。あなたは集中力を1得る。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A25="", "", "'"&amp;A25&amp;"': {megami: '"&amp;B25&amp;"'"&amp;IF(C25&lt;&gt;"",", anotherID: '"&amp;C25&amp;"', replace: '"&amp;D25&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E25,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K25,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G25,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H25,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J25,"'","\'")&amp;"', ruby: '"&amp;F25&amp;"', rubyEn: '"&amp;L25&amp;IF(I25&lt;&gt;"", "', rubyZh: '"&amp;I25, "")&amp;"', baseType: '"&amp;VLOOKUP(M25,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N25="○",", extra: true","")&amp;IF(O25&lt;&gt;"",", extraFrom: '"&amp;O25&amp;"'","")&amp;IF(P25&lt;&gt;"",", exchangableTo: '"&amp;P25&amp;"'","")&amp;IF(Q25&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q25,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R25&lt;&gt;"",", subType: '"&amp;VLOOKUP(R25,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S25&lt;&gt;"",", range: '"&amp;S25&amp;"'","")&amp;IF(U25&lt;&gt;"",", damage: '"&amp;U25&amp;"'","")&amp;IF(W25&lt;&gt;"",", capacity: '"&amp;W25&amp;"'","")&amp;IF(X25&lt;&gt;"",", growth: "&amp;X25&amp;"","")&amp;IF(Y25&lt;&gt;"",", cost: '"&amp;Y25&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC25, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD25&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF25&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF25, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI25, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z25="○",", sealable: true","")&amp;IF(AA25="○",", removable: true","")&amp;IF(AB25="○",", original: true","")&amp;"},")</f>
+        <v>'07-shinra-o-n-y': {megami: 'shinra-original', name: '福音', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふくいん', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '計略を実行し、同じ計略を準備する。\n[神算] あなたと相手はカードを1枚引く。\n[鬼謀] 相手は手札を1枚捨て札にする。あなたは集中力を1得る。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP25" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34470,8 +34722,8 @@
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
       <c r="AO26" s="8" t="str">
-        <f>IF(A26="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q26,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R26&lt;&gt;"",", subType: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S26&lt;&gt;"",", range: '"&amp;S26&amp;"'","")&amp;IF(U26&lt;&gt;"",", damage: '"&amp;U26&amp;"'","")&amp;IF(W26&lt;&gt;"",", capacity: '"&amp;W26&amp;"'","")&amp;IF(X26&lt;&gt;"",", growth: "&amp;X26&amp;"","")&amp;IF(Y26&lt;&gt;"",", cost: '"&amp;Y26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z26="○",", sealable: true","")&amp;IF(AA26="○",", removable: true","")&amp;IF(AB26="○",", original: true","")&amp;"}")</f>
-        <v>, '07-shinra-o-s-a': {megami: 'shinra-original', name: '不在証明', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふざいしょうめい', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '1', text: '【展開時】相手の宿すメガミ1柱を封印する。\n（相手は封印されたメガミのカードを使用できない）\n【破棄時】封印されたメガミを解放し、このカードを未使用に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A26="", "", "'"&amp;A26&amp;"': {megami: '"&amp;B26&amp;"'"&amp;IF(C26&lt;&gt;"",", anotherID: '"&amp;C26&amp;"', replace: '"&amp;D26&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E26,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K26,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G26,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H26,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J26,"'","\'")&amp;"', ruby: '"&amp;F26&amp;"', rubyEn: '"&amp;L26&amp;IF(I26&lt;&gt;"", "', rubyZh: '"&amp;I26, "")&amp;"', baseType: '"&amp;VLOOKUP(M26,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N26="○",", extra: true","")&amp;IF(O26&lt;&gt;"",", extraFrom: '"&amp;O26&amp;"'","")&amp;IF(P26&lt;&gt;"",", exchangableTo: '"&amp;P26&amp;"'","")&amp;IF(Q26&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q26,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R26&lt;&gt;"",", subType: '"&amp;VLOOKUP(R26,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S26&lt;&gt;"",", range: '"&amp;S26&amp;"'","")&amp;IF(U26&lt;&gt;"",", damage: '"&amp;U26&amp;"'","")&amp;IF(W26&lt;&gt;"",", capacity: '"&amp;W26&amp;"'","")&amp;IF(X26&lt;&gt;"",", growth: "&amp;X26&amp;"","")&amp;IF(Y26&lt;&gt;"",", cost: '"&amp;Y26&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC26, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD26&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF26&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF26, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI26, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z26="○",", sealable: true","")&amp;IF(AA26="○",", removable: true","")&amp;IF(AB26="○",", original: true","")&amp;"},")</f>
+        <v>'07-shinra-o-s-a': {megami: 'shinra-original', name: '不在証明', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ふざいしょうめい', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '3', cost: '1', text: '【展開時】相手の宿すメガミ1柱を封印する。\n（相手は封印されたメガミのカードを使用できない）\n【破棄時】封印されたメガミを解放し、このカードを未使用に戻す。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP26" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34551,8 +34803,8 @@
       <c r="AM27" s="11"/>
       <c r="AN27" s="11"/>
       <c r="AO27" s="8" t="str">
-        <f>IF(A27="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R27&lt;&gt;"",", subType: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S27&lt;&gt;"",", range: '"&amp;S27&amp;"'","")&amp;IF(U27&lt;&gt;"",", damage: '"&amp;U27&amp;"'","")&amp;IF(W27&lt;&gt;"",", capacity: '"&amp;W27&amp;"'","")&amp;IF(X27&lt;&gt;"",", growth: "&amp;X27&amp;"","")&amp;IF(Y27&lt;&gt;"",", cost: '"&amp;Y27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z27="○",", sealable: true","")&amp;IF(AA27="○",", removable: true","")&amp;IF(AB27="○",", original: true","")&amp;"}")</f>
-        <v>, '15-korunu-o-n-a': {megami: 'korunu-original', name: '永久凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいきゅうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は1減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A27="", "", "'"&amp;A27&amp;"': {megami: '"&amp;B27&amp;"'"&amp;IF(C27&lt;&gt;"",", anotherID: '"&amp;C27&amp;"', replace: '"&amp;D27&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E27,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K27,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G27,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H27,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J27,"'","\'")&amp;"', ruby: '"&amp;F27&amp;"', rubyEn: '"&amp;L27&amp;IF(I27&lt;&gt;"", "', rubyZh: '"&amp;I27, "")&amp;"', baseType: '"&amp;VLOOKUP(M27,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N27="○",", extra: true","")&amp;IF(O27&lt;&gt;"",", extraFrom: '"&amp;O27&amp;"'","")&amp;IF(P27&lt;&gt;"",", exchangableTo: '"&amp;P27&amp;"'","")&amp;IF(Q27&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R27&lt;&gt;"",", subType: '"&amp;VLOOKUP(R27,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S27&lt;&gt;"",", range: '"&amp;S27&amp;"'","")&amp;IF(U27&lt;&gt;"",", damage: '"&amp;U27&amp;"'","")&amp;IF(W27&lt;&gt;"",", capacity: '"&amp;W27&amp;"'","")&amp;IF(X27&lt;&gt;"",", growth: "&amp;X27&amp;"","")&amp;IF(Y27&lt;&gt;"",", cost: '"&amp;Y27&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC27, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD27&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF27&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF27, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI27, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z27="○",", sealable: true","")&amp;IF(AA27="○",", removable: true","")&amp;IF(AB27="○",", original: true","")&amp;"},")</f>
+        <v>'15-korunu-o-n-a': {megami: 'korunu-original', name: '永久凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいきゅうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は1減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP27" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34632,8 +34884,8 @@
       <c r="AM28" s="11"/>
       <c r="AN28" s="11"/>
       <c r="AO28" s="8" t="str">
-        <f>IF(A28="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R28&lt;&gt;"",", subType: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S28&lt;&gt;"",", range: '"&amp;S28&amp;"'","")&amp;IF(U28&lt;&gt;"",", damage: '"&amp;U28&amp;"'","")&amp;IF(W28&lt;&gt;"",", capacity: '"&amp;W28&amp;"'","")&amp;IF(X28&lt;&gt;"",", growth: "&amp;X28&amp;"","")&amp;IF(Y28&lt;&gt;"",", cost: '"&amp;Y28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z28="○",", sealable: true","")&amp;IF(AA28="○",", removable: true","")&amp;IF(AB28="○",", original: true","")&amp;"}")</f>
-        <v>, '15-korunu-o-n-b': {megami: 'korunu-original', name: '永劫凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいごうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は2減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A28="", "", "'"&amp;A28&amp;"': {megami: '"&amp;B28&amp;"'"&amp;IF(C28&lt;&gt;"",", anotherID: '"&amp;C28&amp;"', replace: '"&amp;D28&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E28,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K28,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G28,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H28,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J28,"'","\'")&amp;"', ruby: '"&amp;F28&amp;"', rubyEn: '"&amp;L28&amp;IF(I28&lt;&gt;"", "', rubyZh: '"&amp;I28, "")&amp;"', baseType: '"&amp;VLOOKUP(M28,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N28="○",", extra: true","")&amp;IF(O28&lt;&gt;"",", extraFrom: '"&amp;O28&amp;"'","")&amp;IF(P28&lt;&gt;"",", exchangableTo: '"&amp;P28&amp;"'","")&amp;IF(Q28&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R28&lt;&gt;"",", subType: '"&amp;VLOOKUP(R28,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S28&lt;&gt;"",", range: '"&amp;S28&amp;"'","")&amp;IF(U28&lt;&gt;"",", damage: '"&amp;U28&amp;"'","")&amp;IF(W28&lt;&gt;"",", capacity: '"&amp;W28&amp;"'","")&amp;IF(X28&lt;&gt;"",", growth: "&amp;X28&amp;"","")&amp;IF(Y28&lt;&gt;"",", cost: '"&amp;Y28&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC28, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD28&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF28&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF28, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI28, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z28="○",", sealable: true","")&amp;IF(AA28="○",", removable: true","")&amp;IF(AB28="○",", original: true","")&amp;"},")</f>
+        <v>'15-korunu-o-n-b': {megami: 'korunu-original', name: '永劫凍土', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'えいごうとうど', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '4', text: '【展開時】相手は畏縮する。\n【展開中】相手のターン中、相手のオーラの上限は2減少する。\n（上限を超えた分の桜花結晶や凍結トークンが既にある場合はそのまま留まる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP28" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34715,8 +34967,8 @@
       <c r="AM29" s="11"/>
       <c r="AN29" s="11"/>
       <c r="AO29" s="8" t="str">
-        <f>IF(A29="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R29&lt;&gt;"",", subType: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S29&lt;&gt;"",", range: '"&amp;S29&amp;"'","")&amp;IF(U29&lt;&gt;"",", damage: '"&amp;U29&amp;"'","")&amp;IF(W29&lt;&gt;"",", capacity: '"&amp;W29&amp;"'","")&amp;IF(X29&lt;&gt;"",", growth: "&amp;X29&amp;"","")&amp;IF(Y29&lt;&gt;"",", cost: '"&amp;Y29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z29="○",", sealable: true","")&amp;IF(AA29="○",", removable: true","")&amp;IF(AB29="○",", original: true","")&amp;"}")</f>
-        <v>, '15-korunu-o-n-y': {megami: 'korunu-original', name: '霧氷', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'むひょう', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '4-9', damage: '1/-', text: '【攻撃後】対応した《攻撃》と、このターンに相手が次に行う《攻撃》は-1/+0となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <f>IF(A29="", "", "'"&amp;A29&amp;"': {megami: '"&amp;B29&amp;"'"&amp;IF(C29&lt;&gt;"",", anotherID: '"&amp;C29&amp;"', replace: '"&amp;D29&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E29,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K29,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G29,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H29,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J29,"'","\'")&amp;"', ruby: '"&amp;F29&amp;"', rubyEn: '"&amp;L29&amp;IF(I29&lt;&gt;"", "', rubyZh: '"&amp;I29, "")&amp;"', baseType: '"&amp;VLOOKUP(M29,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N29="○",", extra: true","")&amp;IF(O29&lt;&gt;"",", extraFrom: '"&amp;O29&amp;"'","")&amp;IF(P29&lt;&gt;"",", exchangableTo: '"&amp;P29&amp;"'","")&amp;IF(Q29&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R29&lt;&gt;"",", subType: '"&amp;VLOOKUP(R29,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S29&lt;&gt;"",", range: '"&amp;S29&amp;"'","")&amp;IF(U29&lt;&gt;"",", damage: '"&amp;U29&amp;"'","")&amp;IF(W29&lt;&gt;"",", capacity: '"&amp;W29&amp;"'","")&amp;IF(X29&lt;&gt;"",", growth: "&amp;X29&amp;"","")&amp;IF(Y29&lt;&gt;"",", cost: '"&amp;Y29&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC29, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD29&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF29&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF29, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI29, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z29="○",", sealable: true","")&amp;IF(AA29="○",", removable: true","")&amp;IF(AB29="○",", original: true","")&amp;"},")</f>
+        <v>'15-korunu-o-n-y': {megami: 'korunu-original', name: '霧氷', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'むひょう', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '4-9', damage: '1/-', text: '【攻撃後】対応した《攻撃》と、このターンに相手が次に行う《攻撃》は-1/+0となる。', textZh: '', textZhG1: '', textKo: '', textEn: ''},</v>
       </c>
       <c r="AP29" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34796,8 +35048,8 @@
       <c r="AM30" s="11"/>
       <c r="AN30" s="11"/>
       <c r="AO30" s="8" t="str">
-        <f>IF(A30="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(Q30&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R30&lt;&gt;"",", subType: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S30&lt;&gt;"",", range: '"&amp;S30&amp;"'","")&amp;IF(U30&lt;&gt;"",", damage: '"&amp;U30&amp;"'","")&amp;IF(W30&lt;&gt;"",", capacity: '"&amp;W30&amp;"'","")&amp;IF(X30&lt;&gt;"",", growth: "&amp;X30&amp;"","")&amp;IF(Y30&lt;&gt;"",", cost: '"&amp;Y30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z30="○",", sealable: true","")&amp;IF(AA30="○",", removable: true","")&amp;IF(AB30="○",", original: true","")&amp;"}")</f>
-        <v>, '15-korunu-o-s-a': {megami: 'korunu-original', name: 'コルヌコラムヌカラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '現在のフェイズを終了する。（対応した《攻撃》は消える）\n【使用済】相手の終了フェイズに相手のオーラに空きがなければ、相手のオーラに1ダメージを与え、相手は1回凍結する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A30="", "", "'"&amp;A30&amp;"': {megami: '"&amp;B30&amp;"'"&amp;IF(C30&lt;&gt;"",", anotherID: '"&amp;C30&amp;"', replace: '"&amp;D30&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E30,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K30,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G30,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H30,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J30,"'","\'")&amp;"', ruby: '"&amp;F30&amp;"', rubyEn: '"&amp;L30&amp;IF(I30&lt;&gt;"", "', rubyZh: '"&amp;I30, "")&amp;"', baseType: '"&amp;VLOOKUP(M30,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N30="○",", extra: true","")&amp;IF(O30&lt;&gt;"",", extraFrom: '"&amp;O30&amp;"'","")&amp;IF(P30&lt;&gt;"",", exchangableTo: '"&amp;P30&amp;"'","")&amp;IF(Q30&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R30&lt;&gt;"",", subType: '"&amp;VLOOKUP(R30,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S30&lt;&gt;"",", range: '"&amp;S30&amp;"'","")&amp;IF(U30&lt;&gt;"",", damage: '"&amp;U30&amp;"'","")&amp;IF(W30&lt;&gt;"",", capacity: '"&amp;W30&amp;"'","")&amp;IF(X30&lt;&gt;"",", growth: "&amp;X30&amp;"","")&amp;IF(Y30&lt;&gt;"",", cost: '"&amp;Y30&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC30, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD30&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF30&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF30, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI30, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z30="○",", sealable: true","")&amp;IF(AA30="○",", removable: true","")&amp;IF(AB30="○",", original: true","")&amp;"},")</f>
+        <v>'15-korunu-o-s-a': {megami: 'korunu-original', name: 'コルヌコラムヌカラ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'action', subType: 'reaction', cost: '3', text: '現在のフェイズを終了する。（対応した《攻撃》は消える）\n【使用済】相手の終了フェイズに相手のオーラに空きがなければ、相手のオーラに1ダメージを与え、相手は1回凍結する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP30" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34875,8 +35127,8 @@
       <c r="AM31" s="11"/>
       <c r="AN31" s="11"/>
       <c r="AO31" s="8" t="str">
-        <f>IF(A31="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"",", anotherID: '"&amp;C31&amp;"', replace: '"&amp;D31&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E31,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K31,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G31,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H31,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J31,"'","\'")&amp;"', ruby: '"&amp;F31&amp;"', rubyEn: '"&amp;L31&amp;IF(I31&lt;&gt;"", "', rubyZh: '"&amp;I31, "")&amp;"', baseType: '"&amp;VLOOKUP(M31,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N31="○",", extra: true","")&amp;IF(O31&lt;&gt;"",", extraFrom: '"&amp;O31&amp;"'","")&amp;IF(P31&lt;&gt;"",", exchangableTo: '"&amp;P31&amp;"'","")&amp;IF(Q31&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R31&lt;&gt;"",", subType: '"&amp;VLOOKUP(R31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S31&lt;&gt;"",", range: '"&amp;S31&amp;"'","")&amp;IF(U31&lt;&gt;"",", damage: '"&amp;U31&amp;"'","")&amp;IF(W31&lt;&gt;"",", capacity: '"&amp;W31&amp;"'","")&amp;IF(X31&lt;&gt;"",", growth: "&amp;X31&amp;"","")&amp;IF(Y31&lt;&gt;"",", cost: '"&amp;Y31&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC31, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD31&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF31&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z31="○",", sealable: true","")&amp;IF(AA31="○",", removable: true","")&amp;IF(AB31="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-n-a': {megami: 'hagane-original', name: '大跳ね', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいはね', rubyEn: '', baseType: 'normal', type: 'action', text: 'ダスト⇔間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A31="", "", "'"&amp;A31&amp;"': {megami: '"&amp;B31&amp;"'"&amp;IF(C31&lt;&gt;"",", anotherID: '"&amp;C31&amp;"', replace: '"&amp;D31&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E31,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K31,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G31,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H31,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J31,"'","\'")&amp;"', ruby: '"&amp;F31&amp;"', rubyEn: '"&amp;L31&amp;IF(I31&lt;&gt;"", "', rubyZh: '"&amp;I31, "")&amp;"', baseType: '"&amp;VLOOKUP(M31,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N31="○",", extra: true","")&amp;IF(O31&lt;&gt;"",", extraFrom: '"&amp;O31&amp;"'","")&amp;IF(P31&lt;&gt;"",", exchangableTo: '"&amp;P31&amp;"'","")&amp;IF(Q31&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R31&lt;&gt;"",", subType: '"&amp;VLOOKUP(R31,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S31&lt;&gt;"",", range: '"&amp;S31&amp;"'","")&amp;IF(U31&lt;&gt;"",", damage: '"&amp;U31&amp;"'","")&amp;IF(W31&lt;&gt;"",", capacity: '"&amp;W31&amp;"'","")&amp;IF(X31&lt;&gt;"",", growth: "&amp;X31&amp;"","")&amp;IF(Y31&lt;&gt;"",", cost: '"&amp;Y31&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC31, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD31&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF31&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF31, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI31, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z31="○",", sealable: true","")&amp;IF(AA31="○",", removable: true","")&amp;IF(AB31="○",", original: true","")&amp;"},")</f>
+        <v>'08-hagane-o-n-a': {megami: 'hagane-original', name: '大跳ね', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいはね', rubyEn: '', baseType: 'normal', type: 'action', text: 'ダスト⇔間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP31" s="38" t="str">
         <f t="shared" si="0"/>
@@ -34954,8 +35206,8 @@
       <c r="AM32" s="11"/>
       <c r="AN32" s="11"/>
       <c r="AO32" s="8" t="str">
-        <f>IF(A32="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R32&lt;&gt;"",", subType: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S32&lt;&gt;"",", range: '"&amp;S32&amp;"'","")&amp;IF(U32&lt;&gt;"",", damage: '"&amp;U32&amp;"'","")&amp;IF(W32&lt;&gt;"",", capacity: '"&amp;W32&amp;"'","")&amp;IF(X32&lt;&gt;"",", growth: "&amp;X32&amp;"","")&amp;IF(Y32&lt;&gt;"",", cost: '"&amp;Y32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z32="○",", sealable: true","")&amp;IF(AA32="○",", removable: true","")&amp;IF(AB32="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-n-b': {megami: 'hagane-original', name: '土砂雪崩', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どしゃなだれ', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・間合→ダスト：10\n・ダスト→間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A32="", "", "'"&amp;A32&amp;"': {megami: '"&amp;B32&amp;"'"&amp;IF(C32&lt;&gt;"",", anotherID: '"&amp;C32&amp;"', replace: '"&amp;D32&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E32,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K32,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G32,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H32,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J32,"'","\'")&amp;"', ruby: '"&amp;F32&amp;"', rubyEn: '"&amp;L32&amp;IF(I32&lt;&gt;"", "', rubyZh: '"&amp;I32, "")&amp;"', baseType: '"&amp;VLOOKUP(M32,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N32="○",", extra: true","")&amp;IF(O32&lt;&gt;"",", extraFrom: '"&amp;O32&amp;"'","")&amp;IF(P32&lt;&gt;"",", exchangableTo: '"&amp;P32&amp;"'","")&amp;IF(Q32&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R32&lt;&gt;"",", subType: '"&amp;VLOOKUP(R32,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S32&lt;&gt;"",", range: '"&amp;S32&amp;"'","")&amp;IF(U32&lt;&gt;"",", damage: '"&amp;U32&amp;"'","")&amp;IF(W32&lt;&gt;"",", capacity: '"&amp;W32&amp;"'","")&amp;IF(X32&lt;&gt;"",", growth: "&amp;X32&amp;"","")&amp;IF(Y32&lt;&gt;"",", cost: '"&amp;Y32&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC32, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD32&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF32&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF32, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI32, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z32="○",", sealable: true","")&amp;IF(AA32="○",", removable: true","")&amp;IF(AB32="○",", original: true","")&amp;"},")</f>
+        <v>'08-hagane-o-n-b': {megami: 'hagane-original', name: '土砂雪崩', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'どしゃなだれ', rubyEn: '', baseType: 'normal', type: 'action', text: '以下から1つを選ぶ。\n・間合→ダスト：10\n・ダスト→間合：3', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP32" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35035,8 +35287,8 @@
       <c r="AM33" s="11"/>
       <c r="AN33" s="11"/>
       <c r="AO33" s="8" t="str">
-        <f>IF(A33="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R33&lt;&gt;"",", subType: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S33&lt;&gt;"",", range: '"&amp;S33&amp;"'","")&amp;IF(U33&lt;&gt;"",", damage: '"&amp;U33&amp;"'","")&amp;IF(W33&lt;&gt;"",", capacity: '"&amp;W33&amp;"'","")&amp;IF(X33&lt;&gt;"",", growth: "&amp;X33&amp;"","")&amp;IF(Y33&lt;&gt;"",", cost: '"&amp;Y33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z33="○",", sealable: true","")&amp;IF(AA33="○",", removable: true","")&amp;IF(AB33="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-s-a': {megami: 'hagane-original', name: '大旋空ストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。\n----\n【即再起】遠心を持つカードを使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A33="", "", "'"&amp;A33&amp;"': {megami: '"&amp;B33&amp;"'"&amp;IF(C33&lt;&gt;"",", anotherID: '"&amp;C33&amp;"', replace: '"&amp;D33&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E33,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K33,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G33,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H33,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J33,"'","\'")&amp;"', ruby: '"&amp;F33&amp;"', rubyEn: '"&amp;L33&amp;IF(I33&lt;&gt;"", "', rubyZh: '"&amp;I33, "")&amp;"', baseType: '"&amp;VLOOKUP(M33,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N33="○",", extra: true","")&amp;IF(O33&lt;&gt;"",", extraFrom: '"&amp;O33&amp;"'","")&amp;IF(P33&lt;&gt;"",", exchangableTo: '"&amp;P33&amp;"'","")&amp;IF(Q33&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R33&lt;&gt;"",", subType: '"&amp;VLOOKUP(R33,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S33&lt;&gt;"",", range: '"&amp;S33&amp;"'","")&amp;IF(U33&lt;&gt;"",", damage: '"&amp;U33&amp;"'","")&amp;IF(W33&lt;&gt;"",", capacity: '"&amp;W33&amp;"'","")&amp;IF(X33&lt;&gt;"",", growth: "&amp;X33&amp;"","")&amp;IF(Y33&lt;&gt;"",", cost: '"&amp;Y33&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC33, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD33&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF33&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF33, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI33, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z33="○",", sealable: true","")&amp;IF(AA33="○",", removable: true","")&amp;IF(AB33="○",", original: true","")&amp;"},")</f>
+        <v>'08-hagane-o-s-a': {megami: 'hagane-original', name: '大旋空ストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このターンにあなたが行う次の《攻撃》はライフへのダメージが2倍になる。\n----\n【即再起】遠心を持つカードを使用する。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP33" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35116,8 +35368,8 @@
       <c r="AM34" s="11"/>
       <c r="AN34" s="11"/>
       <c r="AO34" s="8" t="str">
-        <f>IF(A34="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"",", anotherID: '"&amp;C34&amp;"', replace: '"&amp;D34&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E34,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K34,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G34,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H34,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J34,"'","\'")&amp;"', ruby: '"&amp;F34&amp;"', rubyEn: '"&amp;L34&amp;IF(I34&lt;&gt;"", "', rubyZh: '"&amp;I34, "")&amp;"', baseType: '"&amp;VLOOKUP(M34,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N34="○",", extra: true","")&amp;IF(O34&lt;&gt;"",", extraFrom: '"&amp;O34&amp;"'","")&amp;IF(P34&lt;&gt;"",", exchangableTo: '"&amp;P34&amp;"'","")&amp;IF(Q34&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R34&lt;&gt;"",", subType: '"&amp;VLOOKUP(R34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S34&lt;&gt;"",", range: '"&amp;S34&amp;"'","")&amp;IF(U34&lt;&gt;"",", damage: '"&amp;U34&amp;"'","")&amp;IF(W34&lt;&gt;"",", capacity: '"&amp;W34&amp;"'","")&amp;IF(X34&lt;&gt;"",", growth: "&amp;X34&amp;"","")&amp;IF(Y34&lt;&gt;"",", cost: '"&amp;Y34&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC34, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD34&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF34&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z34="○",", sealable: true","")&amp;IF(AA34="○",", removable: true","")&amp;IF(AB34="○",", original: true","")&amp;"}")</f>
-        <v>, '08-hagane-o-s-b': {megami: 'hagane-original', name: '大旋空エクストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうエクストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このカードの上に桜花結晶を1つダストから置く。\n【使用済】あなたが攻撃するならば、このカードの上の桜花結晶をすべてダストに送ってもよい。そうした場合、その個数に等しい回数だけその攻撃のライフへのダメージを2倍にする。\n【使用済】あなたが遠心を持つカードを使用した時、このカードを未使用に戻してもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true}</v>
+        <f>IF(A34="", "", "'"&amp;A34&amp;"': {megami: '"&amp;B34&amp;"'"&amp;IF(C34&lt;&gt;"",", anotherID: '"&amp;C34&amp;"', replace: '"&amp;D34&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E34,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K34,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G34,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H34,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J34,"'","\'")&amp;"', ruby: '"&amp;F34&amp;"', rubyEn: '"&amp;L34&amp;IF(I34&lt;&gt;"", "', rubyZh: '"&amp;I34, "")&amp;"', baseType: '"&amp;VLOOKUP(M34,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N34="○",", extra: true","")&amp;IF(O34&lt;&gt;"",", extraFrom: '"&amp;O34&amp;"'","")&amp;IF(P34&lt;&gt;"",", exchangableTo: '"&amp;P34&amp;"'","")&amp;IF(Q34&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R34&lt;&gt;"",", subType: '"&amp;VLOOKUP(R34,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S34&lt;&gt;"",", range: '"&amp;S34&amp;"'","")&amp;IF(U34&lt;&gt;"",", damage: '"&amp;U34&amp;"'","")&amp;IF(W34&lt;&gt;"",", capacity: '"&amp;W34&amp;"'","")&amp;IF(X34&lt;&gt;"",", growth: "&amp;X34&amp;"","")&amp;IF(Y34&lt;&gt;"",", cost: '"&amp;Y34&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC34, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD34&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF34&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF34, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI34, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z34="○",", sealable: true","")&amp;IF(AA34="○",", removable: true","")&amp;IF(AB34="○",", original: true","")&amp;"},")</f>
+        <v>'08-hagane-o-s-b': {megami: 'hagane-original', name: '大旋空エクストリーム', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'だいせんくうエクストリーム', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: 'このカードの上に桜花結晶を1つダストから置く。\n【使用済】あなたが攻撃するならば、このカードの上の桜花結晶をすべてダストに送ってもよい。そうした場合、その個数に等しい回数だけその攻撃のライフへのダメージを2倍にする。\n【使用済】あなたが遠心を持つカードを使用した時、このカードを未使用に戻してもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP34" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35137,14 +35389,248 @@
       <c r="AY34" s="14"/>
       <c r="AZ34" s="14"/>
     </row>
-    <row r="35" spans="1:52">
+    <row r="35" spans="1:52" s="33" customFormat="1">
+      <c r="A35" s="24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>1114</v>
+      </c>
+      <c r="S35" s="24"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="24"/>
       <c r="X35" s="63"/>
-    </row>
-    <row r="36" spans="1:52">
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC35" s="28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="30"/>
+      <c r="AI35" s="47"/>
+      <c r="AJ35" s="46"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="8" t="str">
+        <f>IF(A35="", "", "'"&amp;A35&amp;"': {megami: '"&amp;B35&amp;"'"&amp;IF(C35&lt;&gt;"",", anotherID: '"&amp;C35&amp;"', replace: '"&amp;D35&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E35,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K35,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G35,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H35,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J35,"'","\'")&amp;"', ruby: '"&amp;F35&amp;"', rubyEn: '"&amp;L35&amp;IF(I35&lt;&gt;"", "', rubyZh: '"&amp;I35, "")&amp;"', baseType: '"&amp;VLOOKUP(M35,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N35="○",", extra: true","")&amp;IF(O35&lt;&gt;"",", extraFrom: '"&amp;O35&amp;"'","")&amp;IF(P35&lt;&gt;"",", exchangableTo: '"&amp;P35&amp;"'","")&amp;IF(Q35&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q35,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R35&lt;&gt;"",", subType: '"&amp;VLOOKUP(R35,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S35&lt;&gt;"",", range: '"&amp;S35&amp;"'","")&amp;IF(U35&lt;&gt;"",", damage: '"&amp;U35&amp;"'","")&amp;IF(W35&lt;&gt;"",", capacity: '"&amp;W35&amp;"'","")&amp;IF(X35&lt;&gt;"",", growth: "&amp;X35&amp;"","")&amp;IF(Y35&lt;&gt;"",", cost: '"&amp;Y35&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC35, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD35&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF35&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF35, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI35, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z35="○",", sealable: true","")&amp;IF(AA35="○",", removable: true","")&amp;IF(AB35="○",", original: true","")&amp;"},")</f>
+        <v>'08-yukihi-o-n-a': {megami: 'yukihi-original', name: 'こころがさね', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: 'あなたは集中力を1得る。傘の開閉を行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
+      </c>
+      <c r="AP35" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《こころがさね》 */ export const YUKIHI_O_N_A: TCardId = '08-yukihi-o-n-a';</v>
+      </c>
+      <c r="AQ35" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-yukihi-o-n-a'</v>
+      </c>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="14"/>
+      <c r="AX35" s="14"/>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+    </row>
+    <row r="36" spans="1:52" s="33" customFormat="1" ht="36">
+      <c r="A36" s="24" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T36" s="46"/>
+      <c r="U36" s="24" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V36" s="46"/>
+      <c r="W36" s="24"/>
       <c r="X36" s="63"/>
-    </row>
-    <row r="37" spans="1:52">
+      <c r="Y36" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC36" s="28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="30"/>
+      <c r="AI36" s="47"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="8" t="str">
+        <f>IF(A36="", "", "'"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"",", anotherID: '"&amp;C36&amp;"', replace: '"&amp;D36&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E36,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K36,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G36,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H36,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J36,"'","\'")&amp;"', ruby: '"&amp;F36&amp;"', rubyEn: '"&amp;L36&amp;IF(I36&lt;&gt;"", "', rubyZh: '"&amp;I36, "")&amp;"', baseType: '"&amp;VLOOKUP(M36,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N36="○",", extra: true","")&amp;IF(O36&lt;&gt;"",", extraFrom: '"&amp;O36&amp;"'","")&amp;IF(P36&lt;&gt;"",", exchangableTo: '"&amp;P36&amp;"'","")&amp;IF(Q36&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q36,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R36&lt;&gt;"",", subType: '"&amp;VLOOKUP(R36,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S36&lt;&gt;"",", range: '"&amp;S36&amp;"'","")&amp;IF(U36&lt;&gt;"",", damage: '"&amp;U36&amp;"'","")&amp;IF(W36&lt;&gt;"",", capacity: '"&amp;W36&amp;"'","")&amp;IF(X36&lt;&gt;"",", growth: "&amp;X36&amp;"","")&amp;IF(Y36&lt;&gt;"",", cost: '"&amp;Y36&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC36, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD36&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF36&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z36="○",", sealable: true","")&amp;IF(AA36="○",", removable: true","")&amp;IF(AB36="○",", original: true","")&amp;"},")</f>
+        <v>'08-yukihi-o-s-a': {megami: 'yukihi-original', name: 'ゆきのいろ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-6', damage: '2/1', cost: '2', text: '（ゲーム開始時はこちらが表向きであり、「ゆきのいろ」が使用済と扱う）\n【常時】このカードはあなたの傘が閉じている場合のみ使用できる。\n【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
+      </c>
+      <c r="AP36" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《ゆきのいろ》 */ export const YUKIHI_O_S_A: TCardId = '08-yukihi-o-s-a';</v>
+      </c>
+      <c r="AQ36" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-yukihi-o-s-a'</v>
+      </c>
+      <c r="AR36" s="14"/>
+      <c r="AS36" s="14"/>
+      <c r="AT36" s="14"/>
+      <c r="AU36" s="14"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
+      <c r="AY36" s="14"/>
+      <c r="AZ36" s="14"/>
+    </row>
+    <row r="37" spans="1:52" s="33" customFormat="1" ht="48">
+      <c r="A37" s="24" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="24"/>
       <c r="X37" s="63"/>
+      <c r="Y37" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC37" s="28" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AD37" s="28"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="30"/>
+      <c r="AI37" s="47"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="8" t="str">
+        <f>IF(A37="", "", "'"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"",", anotherID: '"&amp;C37&amp;"', replace: '"&amp;D37&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E37,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K37,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G37,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H37,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J37,"'","\'")&amp;"', ruby: '"&amp;F37&amp;"', rubyEn: '"&amp;L37&amp;IF(I37&lt;&gt;"", "', rubyZh: '"&amp;I37, "")&amp;"', baseType: '"&amp;VLOOKUP(M37,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N37="○",", extra: true","")&amp;IF(O37&lt;&gt;"",", extraFrom: '"&amp;O37&amp;"'","")&amp;IF(P37&lt;&gt;"",", exchangableTo: '"&amp;P37&amp;"'","")&amp;IF(Q37&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q37,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R37&lt;&gt;"",", subType: '"&amp;VLOOKUP(R37,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S37&lt;&gt;"",", range: '"&amp;S37&amp;"'","")&amp;IF(U37&lt;&gt;"",", damage: '"&amp;U37&amp;"'","")&amp;IF(W37&lt;&gt;"",", capacity: '"&amp;W37&amp;"'","")&amp;IF(X37&lt;&gt;"",", growth: "&amp;X37&amp;"","")&amp;IF(Y37&lt;&gt;"",", cost: '"&amp;Y37&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC37, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD37&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF37&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z37="○",", sealable: true","")&amp;IF(AA37="○",", removable: true","")&amp;IF(AB37="○",", original: true","")&amp;"},")</f>
+        <v>'08-yukihi-o-s-b': {megami: 'yukihi-original', name: '滅灯淀路', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ほろびのよどみち', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '終端\n相手のライフに1ダメージを与え、相手は畏縮する。\n【常時】このカードはあなたの傘が開いている場合のみ使用できる。\n【使用済】あなたは開始フェイズに集中力を得られない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
+      </c>
+      <c r="AP37" s="38" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    /** 《滅灯淀路》 */ export const YUKIHI_O_S_B: TCardId = '08-yukihi-o-s-b';</v>
+      </c>
+      <c r="AQ37" s="39" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">    | '08-yukihi-o-s-b'</v>
+      </c>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
+      <c r="AU37" s="14"/>
+      <c r="AV37" s="14"/>
+      <c r="AW37" s="14"/>
+      <c r="AX37" s="14"/>
+      <c r="AY37" s="14"/>
+      <c r="AZ37" s="14"/>
     </row>
     <row r="38" spans="1:52">
       <c r="X38" s="63"/>

--- a/sheet/cards_story.xlsx
+++ b/sheet/cards_story.xlsx
@@ -13,12 +13,12 @@
     <sheet name="物語セット" sheetId="7" r:id="rId4"/>
     <sheet name="マスタ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="1122">
   <si>
     <t>メガミID</t>
   </si>
@@ -14013,63 +14013,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>（ゲーム開始時はこちらが表向きであり、「ゆきのいろ」が使用済と扱う）
-【常時】このカードはあなたの傘が閉じている場合のみ使用できる。
-【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。</t>
-    <rPh sb="4" eb="7">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>オモテム</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>シヨウズ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ジョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>シヨウスミ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カサ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カイヘイ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="86" eb="90">
-      <t>キホンドウサ</t>
-    </rPh>
-    <rPh sb="92" eb="93">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>終端
 相手のライフに1ダメージを与え、相手は畏縮する。
 【常時】このカードはあなたの傘が開いている場合のみ使用できる。
@@ -14115,6 +14058,156 @@
     </rPh>
     <rPh sb="80" eb="81">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>【常時】このカードはあなたの傘が閉じている場合のみ使用できる。
+【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シヨウスミ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイヘイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="51" eb="55">
+      <t>キホンドウサ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>（このカードは両面カードであり、ダブルクリックで裏返すことができる。
+「ゆきのいろ」が表向きである間は、「ゆきのいろ」の【使用済】効果が有効となり、裏向きである「滅灯淀路」は切札を使用するルールに従って使用できる）</t>
+    <rPh sb="7" eb="9">
+      <t>リョウメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウラガエ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>オモテム</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>メツ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ヨド</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>キリフダ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>（このカードは両面カードであり、ダブルクリックで裏返すことができる。
+「滅灯淀路」が表向きである間は、「滅灯淀路」の【使用済】効果が有効となり、裏向きである「ゆきのいろ」は切札を使用するルールに従って使用できる）</t>
+    <rPh sb="7" eb="9">
+      <t>リョウメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ウラガエ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>オモテム</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キリフダ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="12"/>
   </si>
@@ -14140,6 +14233,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -14217,6 +14311,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -14242,6 +14337,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -31718,10 +31814,10 @@
   <dimension ref="A1:AML62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
@@ -31744,7 +31840,7 @@
     <col min="19" max="22" width="9.75" style="14" customWidth="1"/>
     <col min="23" max="28" width="6.875" style="14" customWidth="1"/>
     <col min="29" max="29" width="57.375" style="14" customWidth="1"/>
-    <col min="30" max="30" width="24.75" style="14" customWidth="1"/>
+    <col min="30" max="30" width="39.625" style="14" customWidth="1"/>
     <col min="31" max="31" width="45.5" style="14" customWidth="1"/>
     <col min="32" max="32" width="15.625" style="14" customWidth="1"/>
     <col min="33" max="34" width="45.5" style="14" customWidth="1"/>
@@ -35468,7 +35564,7 @@
       <c r="AY35" s="14"/>
       <c r="AZ35" s="14"/>
     </row>
-    <row r="36" spans="1:52" s="33" customFormat="1" ht="36">
+    <row r="36" spans="1:52" s="33" customFormat="1" ht="60">
       <c r="A36" s="24" t="s">
         <v>1096</v>
       </c>
@@ -35516,9 +35612,11 @@
         <v>190</v>
       </c>
       <c r="AC36" s="28" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AD36" s="28"/>
+        <v>1119</v>
+      </c>
+      <c r="AD36" s="28" t="s">
+        <v>1120</v>
+      </c>
       <c r="AE36" s="29"/>
       <c r="AF36" s="30"/>
       <c r="AG36" s="29"/>
@@ -35531,7 +35629,7 @@
       <c r="AN36" s="11"/>
       <c r="AO36" s="8" t="str">
         <f>IF(A36="", "", "'"&amp;A36&amp;"': {megami: '"&amp;B36&amp;"'"&amp;IF(C36&lt;&gt;"",", anotherID: '"&amp;C36&amp;"', replace: '"&amp;D36&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E36,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K36,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G36,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H36,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J36,"'","\'")&amp;"', ruby: '"&amp;F36&amp;"', rubyEn: '"&amp;L36&amp;IF(I36&lt;&gt;"", "', rubyZh: '"&amp;I36, "")&amp;"', baseType: '"&amp;VLOOKUP(M36,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N36="○",", extra: true","")&amp;IF(O36&lt;&gt;"",", extraFrom: '"&amp;O36&amp;"'","")&amp;IF(P36&lt;&gt;"",", exchangableTo: '"&amp;P36&amp;"'","")&amp;IF(Q36&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q36,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R36&lt;&gt;"",", subType: '"&amp;VLOOKUP(R36,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S36&lt;&gt;"",", range: '"&amp;S36&amp;"'","")&amp;IF(U36&lt;&gt;"",", damage: '"&amp;U36&amp;"'","")&amp;IF(W36&lt;&gt;"",", capacity: '"&amp;W36&amp;"'","")&amp;IF(X36&lt;&gt;"",", growth: "&amp;X36&amp;"","")&amp;IF(Y36&lt;&gt;"",", cost: '"&amp;Y36&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC36, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD36&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF36&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF36, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI36, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z36="○",", sealable: true","")&amp;IF(AA36="○",", removable: true","")&amp;IF(AB36="○",", original: true","")&amp;"},")</f>
-        <v>'08-yukihi-o-s-a': {megami: 'yukihi-original', name: 'ゆきのいろ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-6', damage: '2/1', cost: '2', text: '（ゲーム開始時はこちらが表向きであり、「ゆきのいろ」が使用済と扱う）\n【常時】このカードはあなたの傘が閉じている場合のみ使用できる。\n【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
+        <v>'08-yukihi-o-s-a': {megami: 'yukihi-original', name: 'ゆきのいろ', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: '', rubyEn: '', baseType: 'special', type: 'attack', range: '4-6', damage: '2/1', cost: '2', text: '【常時】このカードはあなたの傘が閉じている場合のみ使用できる。\n【使用済】あなたが傘の開閉を行った時、基本動作を1回行ってもよい。', textAdditional: '（このカードは両面カードであり、ダブルクリックで裏返すことができる。\n「ゆきのいろ」が表向きである間は、「ゆきのいろ」の【使用済】効果が有効となり、裏向きである「滅灯淀路」は切札を使用するルールに従って使用できる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP36" s="38" t="str">
         <f t="shared" si="0"/>
@@ -35551,7 +35649,7 @@
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
     </row>
-    <row r="37" spans="1:52" s="33" customFormat="1" ht="48">
+    <row r="37" spans="1:52" s="33" customFormat="1" ht="60">
       <c r="A37" s="24" t="s">
         <v>1097</v>
       </c>
@@ -35597,9 +35695,11 @@
         <v>190</v>
       </c>
       <c r="AC37" s="28" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AD37" s="28"/>
+        <v>1118</v>
+      </c>
+      <c r="AD37" s="28" t="s">
+        <v>1121</v>
+      </c>
       <c r="AE37" s="29"/>
       <c r="AF37" s="30"/>
       <c r="AG37" s="29"/>
@@ -35612,7 +35712,7 @@
       <c r="AN37" s="11"/>
       <c r="AO37" s="8" t="str">
         <f>IF(A37="", "", "'"&amp;A37&amp;"': {megami: '"&amp;B37&amp;"'"&amp;IF(C37&lt;&gt;"",", anotherID: '"&amp;C37&amp;"', replace: '"&amp;D37&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E37,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K37,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G37,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H37,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J37,"'","\'")&amp;"', ruby: '"&amp;F37&amp;"', rubyEn: '"&amp;L37&amp;IF(I37&lt;&gt;"", "', rubyZh: '"&amp;I37, "")&amp;"', baseType: '"&amp;VLOOKUP(M37,マスタ!$A$1:$B$99,2,FALSE)&amp;"'"&amp;IF(N37="○",", extra: true","")&amp;IF(O37&lt;&gt;"",", extraFrom: '"&amp;O37&amp;"'","")&amp;IF(P37&lt;&gt;"",", exchangableTo: '"&amp;P37&amp;"'","")&amp;IF(Q37&lt;&gt;"", ", type: '"&amp;VLOOKUP(Q37,マスタ!$D$1:$E$99,2,FALSE)&amp;"'", "")&amp;IF(R37&lt;&gt;"",", subType: '"&amp;VLOOKUP(R37,マスタ!$D$1:$E$99,2,FALSE)&amp;"'","")&amp;""&amp;IF(S37&lt;&gt;"",", range: '"&amp;S37&amp;"'","")&amp;IF(U37&lt;&gt;"",", damage: '"&amp;U37&amp;"'","")&amp;IF(W37&lt;&gt;"",", capacity: '"&amp;W37&amp;"'","")&amp;IF(X37&lt;&gt;"",", growth: "&amp;X37&amp;"","")&amp;IF(Y37&lt;&gt;"",", cost: '"&amp;Y37&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AC37, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AD37&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AD37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AE37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AG37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AF37&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AF37, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AI37, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"'"&amp;IF(Z37="○",", sealable: true","")&amp;IF(AA37="○",", removable: true","")&amp;IF(AB37="○",", original: true","")&amp;"},")</f>
-        <v>'08-yukihi-o-s-b': {megami: 'yukihi-original', name: '滅灯淀路', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ほろびのよどみち', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '終端\n相手のライフに1ダメージを与え、相手は畏縮する。\n【常時】このカードはあなたの傘が開いている場合のみ使用できる。\n【使用済】あなたは開始フェイズに集中力を得られない。', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
+        <v>'08-yukihi-o-s-b': {megami: 'yukihi-original', name: '滅灯淀路', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'ほろびのよどみち', rubyEn: '', baseType: 'special', type: 'action', cost: '0', text: '終端\n相手のライフに1ダメージを与え、相手は畏縮する。\n【常時】このカードはあなたの傘が開いている場合のみ使用できる。\n【使用済】あなたは開始フェイズに集中力を得られない。', textAdditional: '（このカードは両面カードであり、ダブルクリックで裏返すことができる。\n「滅灯淀路」が表向きである間は、「滅灯淀路」の【使用済】効果が有効となり、裏向きである「ゆきのいろ」は切札を使用するルールに従って使用できる）', textZh: '', textZhG1: '', textKo: '', textEn: '', original: true},</v>
       </c>
       <c r="AP37" s="38" t="str">
         <f t="shared" si="0"/>
